--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
@@ -4452,28 +4452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>164.5342964645597</v>
+        <v>216.2492518914394</v>
       </c>
       <c r="AB2" t="n">
-        <v>225.1230831635727</v>
+        <v>295.881766681407</v>
       </c>
       <c r="AC2" t="n">
-        <v>203.6376520687377</v>
+        <v>267.6432261420885</v>
       </c>
       <c r="AD2" t="n">
-        <v>164534.2964645597</v>
+        <v>216249.2518914394</v>
       </c>
       <c r="AE2" t="n">
-        <v>225123.0831635726</v>
+        <v>295881.766681407</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.460241668467762e-06</v>
+        <v>3.546842863808039e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.35677083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>203637.6520687377</v>
+        <v>267643.2261420885</v>
       </c>
     </row>
     <row r="3">
@@ -4558,28 +4558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>133.421822190396</v>
+        <v>176.5034098217923</v>
       </c>
       <c r="AB3" t="n">
-        <v>182.5536232761905</v>
+        <v>241.4997520989442</v>
       </c>
       <c r="AC3" t="n">
-        <v>165.1309616863815</v>
+        <v>218.4513547057218</v>
       </c>
       <c r="AD3" t="n">
-        <v>133421.822190396</v>
+        <v>176503.4098217923</v>
       </c>
       <c r="AE3" t="n">
-        <v>182553.6232761905</v>
+        <v>241499.7520989442</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.97977696245417e-06</v>
+        <v>4.2958384090789e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.1953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>165130.9616863815</v>
+        <v>218451.3547057218</v>
       </c>
     </row>
     <row r="4">
@@ -4664,28 +4664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>121.1432964557366</v>
+        <v>164.3101354331534</v>
       </c>
       <c r="AB4" t="n">
-        <v>165.753602675713</v>
+        <v>224.816376151116</v>
       </c>
       <c r="AC4" t="n">
-        <v>149.9343114730313</v>
+        <v>203.3602167430838</v>
       </c>
       <c r="AD4" t="n">
-        <v>121143.2964557366</v>
+        <v>164310.1354331534</v>
       </c>
       <c r="AE4" t="n">
-        <v>165753.602675713</v>
+        <v>224816.376151116</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.16613556552666e-06</v>
+        <v>4.564504975412018e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.596354166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>149934.3114730313</v>
+        <v>203360.2167430838</v>
       </c>
     </row>
     <row r="5">
@@ -4770,28 +4770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>119.1627059010523</v>
+        <v>162.158952677877</v>
       </c>
       <c r="AB5" t="n">
-        <v>163.043671301307</v>
+        <v>221.8730330018631</v>
       </c>
       <c r="AC5" t="n">
-        <v>147.4830121455851</v>
+        <v>200.6977821329866</v>
       </c>
       <c r="AD5" t="n">
-        <v>119162.7059010523</v>
+        <v>162158.952677877</v>
       </c>
       <c r="AE5" t="n">
-        <v>163043.671301307</v>
+        <v>221873.0330018631</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.272176038191781e-06</v>
+        <v>4.717379751320255e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.283854166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>147483.0121455851</v>
+        <v>200697.7821329866</v>
       </c>
     </row>
     <row r="6">
@@ -4876,28 +4876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>118.0523685959045</v>
+        <v>152.585929286389</v>
       </c>
       <c r="AB6" t="n">
-        <v>161.5244588157797</v>
+        <v>208.7748000656505</v>
       </c>
       <c r="AC6" t="n">
-        <v>146.108791167448</v>
+        <v>188.8496261647165</v>
       </c>
       <c r="AD6" t="n">
-        <v>118052.3685959045</v>
+        <v>152585.929286389</v>
       </c>
       <c r="AE6" t="n">
-        <v>161524.4588157797</v>
+        <v>208774.8000656505</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.329876246958715e-06</v>
+        <v>4.800564088992533e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.127604166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>146108.791167448</v>
+        <v>188849.6261647166</v>
       </c>
     </row>
     <row r="7">
@@ -4982,28 +4982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>117.5609453436458</v>
+        <v>152.0945060341304</v>
       </c>
       <c r="AB7" t="n">
-        <v>160.852071841976</v>
+        <v>208.1024130918468</v>
       </c>
       <c r="AC7" t="n">
-        <v>145.5005758627228</v>
+        <v>188.2414108599914</v>
       </c>
       <c r="AD7" t="n">
-        <v>117560.9453436458</v>
+        <v>152094.5060341304</v>
       </c>
       <c r="AE7" t="n">
-        <v>160852.071841976</v>
+        <v>208102.4130918468</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.352867632733564e-06</v>
+        <v>4.833709951697709e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.0625</v>
       </c>
       <c r="AH7" t="n">
-        <v>145500.5758627228</v>
+        <v>188241.4108599914</v>
       </c>
     </row>
     <row r="8">
@@ -5088,28 +5088,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>108.1235091603917</v>
+        <v>151.205007283237</v>
       </c>
       <c r="AB8" t="n">
-        <v>147.9393553057543</v>
+        <v>206.8853616589597</v>
       </c>
       <c r="AC8" t="n">
-        <v>133.8202308696025</v>
+        <v>187.1405131077163</v>
       </c>
       <c r="AD8" t="n">
-        <v>108123.5091603917</v>
+        <v>151205.007283237</v>
       </c>
       <c r="AE8" t="n">
-        <v>147939.3553057543</v>
+        <v>206885.3616589596</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.381601029575027e-06</v>
+        <v>4.87513386742367e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.984375</v>
       </c>
       <c r="AH8" t="n">
-        <v>133820.2308696025</v>
+        <v>187140.5131077163</v>
       </c>
     </row>
     <row r="9">
@@ -5194,28 +5194,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>107.5113794011077</v>
+        <v>150.592877523953</v>
       </c>
       <c r="AB9" t="n">
-        <v>147.1018123638433</v>
+        <v>206.0478187170487</v>
       </c>
       <c r="AC9" t="n">
-        <v>133.0626218505684</v>
+        <v>186.3829040886821</v>
       </c>
       <c r="AD9" t="n">
-        <v>107511.3794011077</v>
+        <v>150592.877523953</v>
       </c>
       <c r="AE9" t="n">
-        <v>147101.8123638433</v>
+        <v>206047.8187170487</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.411524843344934e-06</v>
+        <v>4.918273964873452e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.90625</v>
       </c>
       <c r="AH9" t="n">
-        <v>133062.6218505684</v>
+        <v>186382.9040886821</v>
       </c>
     </row>
     <row r="10">
@@ -5300,28 +5300,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>106.6586750801473</v>
+        <v>149.7401732029926</v>
       </c>
       <c r="AB10" t="n">
-        <v>145.9351046932462</v>
+        <v>204.8811110464516</v>
       </c>
       <c r="AC10" t="n">
-        <v>132.0072631225681</v>
+        <v>185.3275453606819</v>
       </c>
       <c r="AD10" t="n">
-        <v>106658.6750801473</v>
+        <v>149740.1732029926</v>
       </c>
       <c r="AE10" t="n">
-        <v>145935.1046932462</v>
+        <v>204881.1110464516</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.442429000467676e-06</v>
+        <v>4.962827388448733e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.828125</v>
       </c>
       <c r="AH10" t="n">
-        <v>132007.2631225681</v>
+        <v>185327.5453606819</v>
       </c>
     </row>
     <row r="11">
@@ -5406,28 +5406,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>106.5524974713297</v>
+        <v>149.633995594175</v>
       </c>
       <c r="AB11" t="n">
-        <v>145.7898278046366</v>
+        <v>204.7358341578419</v>
       </c>
       <c r="AC11" t="n">
-        <v>131.87585125631</v>
+        <v>185.1961334944237</v>
       </c>
       <c r="AD11" t="n">
-        <v>106552.4974713297</v>
+        <v>149633.995594175</v>
       </c>
       <c r="AE11" t="n">
-        <v>145789.8278046366</v>
+        <v>204735.8341578419</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.444949883374969e-06</v>
+        <v>4.96646165562859e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.828125</v>
       </c>
       <c r="AH11" t="n">
-        <v>131875.85125631</v>
+        <v>185196.1334944237</v>
       </c>
     </row>
     <row r="12">
@@ -5512,28 +5512,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>106.0357657862695</v>
+        <v>149.1172639091147</v>
       </c>
       <c r="AB12" t="n">
-        <v>145.0828127165444</v>
+        <v>204.0288190697498</v>
       </c>
       <c r="AC12" t="n">
-        <v>131.2363126959232</v>
+        <v>184.556594934037</v>
       </c>
       <c r="AD12" t="n">
-        <v>106035.7657862695</v>
+        <v>149117.2639091147</v>
       </c>
       <c r="AE12" t="n">
-        <v>145082.8127165444</v>
+        <v>204028.8190697498</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.447937596450279e-06</v>
+        <v>4.97076893524916e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.815104166666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>131236.3126959232</v>
+        <v>184556.594934037</v>
       </c>
     </row>
     <row r="13">
@@ -5618,28 +5618,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>105.3777971428366</v>
+        <v>148.4592952656818</v>
       </c>
       <c r="AB13" t="n">
-        <v>144.1825509910721</v>
+        <v>203.1285573442775</v>
       </c>
       <c r="AC13" t="n">
-        <v>130.4219706860044</v>
+        <v>183.7422529241182</v>
       </c>
       <c r="AD13" t="n">
-        <v>105377.7971428366</v>
+        <v>148459.2952656818</v>
       </c>
       <c r="AE13" t="n">
-        <v>144182.5509910721</v>
+        <v>203128.5573442774</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.479191876199035e-06</v>
+        <v>5.015827118154978e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.736979166666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>130421.9706860044</v>
+        <v>183742.2529241182</v>
       </c>
     </row>
     <row r="14">
@@ -5724,28 +5724,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>105.2705135724206</v>
+        <v>148.3520116952659</v>
       </c>
       <c r="AB14" t="n">
-        <v>144.035760877012</v>
+        <v>202.9817672302173</v>
       </c>
       <c r="AC14" t="n">
-        <v>130.2891900144089</v>
+        <v>183.6094722525227</v>
       </c>
       <c r="AD14" t="n">
-        <v>105270.5135724206</v>
+        <v>148352.0116952659</v>
       </c>
       <c r="AE14" t="n">
-        <v>144035.760877012</v>
+        <v>202981.7672302173</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.474873697144875e-06</v>
+        <v>5.009601753078372e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH14" t="n">
-        <v>130289.1900144089</v>
+        <v>183609.4722525227</v>
       </c>
     </row>
     <row r="15">
@@ -5830,28 +5830,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>104.8408136498668</v>
+        <v>147.9223117727121</v>
       </c>
       <c r="AB15" t="n">
-        <v>143.4478264859515</v>
+        <v>202.3938328391569</v>
       </c>
       <c r="AC15" t="n">
-        <v>129.75736725646</v>
+        <v>183.0776494945737</v>
       </c>
       <c r="AD15" t="n">
-        <v>104840.8136498668</v>
+        <v>147922.3117727121</v>
       </c>
       <c r="AE15" t="n">
-        <v>143447.8264859515</v>
+        <v>202393.8328391569</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.475153795245686e-06</v>
+        <v>5.0100055605428e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH15" t="n">
-        <v>129757.36725646</v>
+        <v>183077.6494945737</v>
       </c>
     </row>
     <row r="16">
@@ -5936,28 +5936,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>104.232006726185</v>
+        <v>147.3135048490303</v>
       </c>
       <c r="AB16" t="n">
-        <v>142.6148299943046</v>
+        <v>201.5608363475099</v>
       </c>
       <c r="AC16" t="n">
-        <v>129.0038707808577</v>
+        <v>182.3241530189714</v>
       </c>
       <c r="AD16" t="n">
-        <v>104232.006726185</v>
+        <v>147313.5048490303</v>
       </c>
       <c r="AE16" t="n">
-        <v>142614.8299943046</v>
+        <v>201560.8363475099</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.470999006750332e-06</v>
+        <v>5.004015749820444e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH16" t="n">
-        <v>129003.8707808577</v>
+        <v>182324.1530189714</v>
       </c>
     </row>
     <row r="17">
@@ -6042,28 +6042,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>103.6245561218017</v>
+        <v>146.7060542446469</v>
       </c>
       <c r="AB17" t="n">
-        <v>141.7836892785584</v>
+        <v>200.7296956317638</v>
       </c>
       <c r="AC17" t="n">
-        <v>128.2520529685087</v>
+        <v>181.5723352066225</v>
       </c>
       <c r="AD17" t="n">
-        <v>103624.5561218017</v>
+        <v>146706.0542446469</v>
       </c>
       <c r="AE17" t="n">
-        <v>141783.6892785584</v>
+        <v>200729.6956317638</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.505311024099601e-06</v>
+        <v>5.053482164212939e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>9</v>
+        <v>8.671875</v>
       </c>
       <c r="AH17" t="n">
-        <v>128252.0529685087</v>
+        <v>181572.3352066225</v>
       </c>
     </row>
   </sheetData>
@@ -6339,28 +6339,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.5077369007602</v>
+        <v>183.5949441843258</v>
       </c>
       <c r="AB2" t="n">
-        <v>193.6171285082858</v>
+        <v>251.2027022701735</v>
       </c>
       <c r="AC2" t="n">
-        <v>175.1385815068563</v>
+        <v>227.2282689307881</v>
       </c>
       <c r="AD2" t="n">
-        <v>141507.7369007602</v>
+        <v>183594.9441843258</v>
       </c>
       <c r="AE2" t="n">
-        <v>193617.1285082858</v>
+        <v>251202.7022701735</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.836871454668564e-06</v>
+        <v>4.153073089501243e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.08072916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>175138.5815068563</v>
+        <v>227228.2689307881</v>
       </c>
     </row>
     <row r="3">
@@ -6445,28 +6445,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>115.6722405705473</v>
+        <v>157.759358345562</v>
       </c>
       <c r="AB3" t="n">
-        <v>158.2678626476501</v>
+        <v>215.8533139399893</v>
       </c>
       <c r="AC3" t="n">
-        <v>143.1629999669422</v>
+        <v>195.2525766096474</v>
       </c>
       <c r="AD3" t="n">
-        <v>115672.2405705474</v>
+        <v>157759.358345562</v>
       </c>
       <c r="AE3" t="n">
-        <v>158267.8626476501</v>
+        <v>215853.3139399893</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.301328687279682e-06</v>
+        <v>4.83302100564918e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.518229166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>143162.9999669422</v>
+        <v>195252.5766096474</v>
       </c>
     </row>
     <row r="4">
@@ -6551,28 +6551,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>112.7225803935253</v>
+        <v>146.392364122088</v>
       </c>
       <c r="AB4" t="n">
-        <v>154.2320074636276</v>
+        <v>200.3004909670474</v>
       </c>
       <c r="AC4" t="n">
-        <v>139.5123211373232</v>
+        <v>181.1840932327139</v>
       </c>
       <c r="AD4" t="n">
-        <v>112722.5803935253</v>
+        <v>146392.364122088</v>
       </c>
       <c r="AE4" t="n">
-        <v>154232.0074636276</v>
+        <v>200300.4909670474</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.486024989449812e-06</v>
+        <v>5.103409443944763e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.0234375</v>
       </c>
       <c r="AH4" t="n">
-        <v>139512.3211373232</v>
+        <v>181184.0932327139</v>
       </c>
     </row>
     <row r="5">
@@ -6657,28 +6657,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>103.051225095056</v>
+        <v>145.0530020154989</v>
       </c>
       <c r="AB5" t="n">
-        <v>140.9992324741856</v>
+        <v>198.4679166443272</v>
       </c>
       <c r="AC5" t="n">
-        <v>127.5424636205529</v>
+        <v>179.5264172313194</v>
       </c>
       <c r="AD5" t="n">
-        <v>103051.225095056</v>
+        <v>145053.0020154989</v>
       </c>
       <c r="AE5" t="n">
-        <v>140999.2324741856</v>
+        <v>198467.9166443272</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.560975613313858e-06</v>
+        <v>5.213134337717741e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.828125</v>
       </c>
       <c r="AH5" t="n">
-        <v>127542.4636205529</v>
+        <v>179526.4172313194</v>
       </c>
     </row>
     <row r="6">
@@ -6763,28 +6763,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>102.6095683455073</v>
+        <v>144.6113452659503</v>
       </c>
       <c r="AB6" t="n">
-        <v>140.3949382249327</v>
+        <v>197.8636223950743</v>
       </c>
       <c r="AC6" t="n">
-        <v>126.9958423663163</v>
+        <v>178.9797959770827</v>
       </c>
       <c r="AD6" t="n">
-        <v>102609.5683455073</v>
+        <v>144611.3452659503</v>
       </c>
       <c r="AE6" t="n">
-        <v>140394.9382249327</v>
+        <v>197863.6223950743</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.588043799316304e-06</v>
+        <v>5.252761143748509e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.763020833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>126995.8423663163</v>
+        <v>178979.7959770827</v>
       </c>
     </row>
     <row r="7">
@@ -6869,28 +6869,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>101.7976332257992</v>
+        <v>143.7994101462422</v>
       </c>
       <c r="AB7" t="n">
-        <v>139.2840127740992</v>
+        <v>196.7526969442409</v>
       </c>
       <c r="AC7" t="n">
-        <v>125.9909420813163</v>
+        <v>177.9748956920828</v>
       </c>
       <c r="AD7" t="n">
-        <v>101797.6332257992</v>
+        <v>143799.4101462422</v>
       </c>
       <c r="AE7" t="n">
-        <v>139284.0127740992</v>
+        <v>196752.6969442409</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.621510798245288e-06</v>
+        <v>5.301755571187086e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.684895833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>125990.9420813163</v>
+        <v>177974.8956920828</v>
       </c>
     </row>
     <row r="8">
@@ -6975,28 +6975,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>101.1064151155537</v>
+        <v>143.1081920359967</v>
       </c>
       <c r="AB8" t="n">
-        <v>138.3382576612711</v>
+        <v>195.8069418314127</v>
       </c>
       <c r="AC8" t="n">
-        <v>125.1354485090805</v>
+        <v>177.119402119847</v>
       </c>
       <c r="AD8" t="n">
-        <v>101106.4151155537</v>
+        <v>143108.1920359967</v>
       </c>
       <c r="AE8" t="n">
-        <v>138338.2576612711</v>
+        <v>195806.9418314127</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.6530219336005e-06</v>
+        <v>5.347886687931202e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.606770833333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>125135.4485090805</v>
+        <v>177119.402119847</v>
       </c>
     </row>
     <row r="9">
@@ -7081,28 +7081,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>100.2183785886235</v>
+        <v>133.9734136632067</v>
       </c>
       <c r="AB9" t="n">
-        <v>137.1232069077191</v>
+        <v>183.3083350637881</v>
       </c>
       <c r="AC9" t="n">
-        <v>124.0363604941127</v>
+        <v>165.8136448402157</v>
       </c>
       <c r="AD9" t="n">
-        <v>100218.3785886235</v>
+        <v>133973.4136632067</v>
       </c>
       <c r="AE9" t="n">
-        <v>137123.2069077191</v>
+        <v>183308.3350637881</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.693684578763855e-06</v>
+        <v>5.407415270764221e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.515625</v>
       </c>
       <c r="AH9" t="n">
-        <v>124036.3604941127</v>
+        <v>165813.6448402157</v>
       </c>
     </row>
     <row r="10">
@@ -7187,28 +7187,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>100.0152798464269</v>
+        <v>133.7703149210102</v>
       </c>
       <c r="AB10" t="n">
-        <v>136.8453182485618</v>
+        <v>183.0304464046308</v>
       </c>
       <c r="AC10" t="n">
-        <v>123.7849931385661</v>
+        <v>165.5622774846691</v>
       </c>
       <c r="AD10" t="n">
-        <v>100015.2798464269</v>
+        <v>133770.3149210102</v>
       </c>
       <c r="AE10" t="n">
-        <v>136845.3182485618</v>
+        <v>183030.4464046308</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.68600600325201e-06</v>
+        <v>5.39617412507485e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.528645833333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>123784.9931385661</v>
+        <v>165562.2774846691</v>
       </c>
     </row>
     <row r="11">
@@ -7293,28 +7293,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>99.18353101640724</v>
+        <v>132.7679738903983</v>
       </c>
       <c r="AB11" t="n">
-        <v>135.7072828051608</v>
+        <v>181.6589991863829</v>
       </c>
       <c r="AC11" t="n">
-        <v>122.7555702006402</v>
+        <v>164.3217192640921</v>
       </c>
       <c r="AD11" t="n">
-        <v>99183.53101640724</v>
+        <v>132767.9738903983</v>
       </c>
       <c r="AE11" t="n">
-        <v>135707.2828051608</v>
+        <v>181658.9991863829</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.714692002333996e-06</v>
+        <v>5.43816934859363e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.463541666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>122755.5702006402</v>
+        <v>164321.7192640921</v>
       </c>
     </row>
     <row r="12">
@@ -7399,28 +7399,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>99.10084801748729</v>
+        <v>132.6852908914784</v>
       </c>
       <c r="AB12" t="n">
-        <v>135.5941522783221</v>
+        <v>181.5458686595443</v>
       </c>
       <c r="AC12" t="n">
-        <v>122.6532366925033</v>
+        <v>164.2193857559552</v>
       </c>
       <c r="AD12" t="n">
-        <v>99100.8480174873</v>
+        <v>132685.2908914784</v>
       </c>
       <c r="AE12" t="n">
-        <v>135594.1522783221</v>
+        <v>181545.8686595443</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.711190765072306e-06</v>
+        <v>5.433043668955395e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.4765625</v>
       </c>
       <c r="AH12" t="n">
-        <v>122653.2366925033</v>
+        <v>164219.3857559552</v>
       </c>
     </row>
   </sheetData>
@@ -7696,28 +7696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.39336637291345</v>
+        <v>129.1444691895406</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.6801917452437</v>
+        <v>176.7011601969266</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.8763278313495</v>
+        <v>159.8370494694172</v>
       </c>
       <c r="AD2" t="n">
-        <v>90393.36637291344</v>
+        <v>129144.4691895406</v>
       </c>
       <c r="AE2" t="n">
-        <v>123680.1917452437</v>
+        <v>176701.1601969266</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.963641605342136e-06</v>
+        <v>6.132242807301947e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.854166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>111876.3278313495</v>
+        <v>159837.0494694172</v>
       </c>
     </row>
     <row r="3">
@@ -7802,28 +7802,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.35280405918164</v>
+        <v>118.33670765012</v>
       </c>
       <c r="AB3" t="n">
-        <v>119.5199602474558</v>
+        <v>161.913504053911</v>
       </c>
       <c r="AC3" t="n">
-        <v>108.1131429887875</v>
+        <v>146.4607064740805</v>
       </c>
       <c r="AD3" t="n">
-        <v>87352.80405918164</v>
+        <v>118336.70765012</v>
       </c>
       <c r="AE3" t="n">
-        <v>119519.9602474558</v>
+        <v>161913.504053911</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.268916401161005e-06</v>
+        <v>6.604540597391686e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.216145833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>108113.1429887875</v>
+        <v>146460.7064740805</v>
       </c>
     </row>
     <row r="4">
@@ -7908,28 +7908,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>85.8228092809242</v>
+        <v>116.8067128718626</v>
       </c>
       <c r="AB4" t="n">
-        <v>117.4265538932392</v>
+        <v>159.8200976996944</v>
       </c>
       <c r="AC4" t="n">
-        <v>106.2195283989025</v>
+        <v>144.5670918841955</v>
       </c>
       <c r="AD4" t="n">
-        <v>85822.80928092421</v>
+        <v>116806.7128718626</v>
       </c>
       <c r="AE4" t="n">
-        <v>117426.5538932392</v>
+        <v>159820.0976996944</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.374617462414088e-06</v>
+        <v>6.768073186140322e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.020833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>106219.5283989025</v>
+        <v>144567.0918841955</v>
       </c>
     </row>
     <row r="5">
@@ -8014,28 +8014,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>77.80426002100356</v>
+        <v>116.470021983059</v>
       </c>
       <c r="AB5" t="n">
-        <v>106.4552210423946</v>
+        <v>159.3594223718799</v>
       </c>
       <c r="AC5" t="n">
-        <v>96.29528415697661</v>
+        <v>144.1503827631056</v>
       </c>
       <c r="AD5" t="n">
-        <v>77804.26002100356</v>
+        <v>116470.021983059</v>
       </c>
       <c r="AE5" t="n">
-        <v>106455.2210423946</v>
+        <v>159359.4223718799</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.403204978598008e-06</v>
+        <v>6.812301602317303e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.96875</v>
       </c>
       <c r="AH5" t="n">
-        <v>96295.2841569766</v>
+        <v>144150.3827631056</v>
       </c>
     </row>
   </sheetData>
@@ -8311,28 +8311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.3363596625792</v>
+        <v>148.4436872213016</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.2305867531484</v>
+        <v>203.107201729378</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.0836675964034</v>
+        <v>183.7229354591319</v>
       </c>
       <c r="AD2" t="n">
-        <v>108336.3596625792</v>
+        <v>148443.6872213015</v>
       </c>
       <c r="AE2" t="n">
-        <v>148230.5867531484</v>
+        <v>203107.201729378</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.435582851207152e-06</v>
+        <v>5.192175641103306e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>134083.6675964034</v>
+        <v>183722.935459132</v>
       </c>
     </row>
     <row r="3">
@@ -8417,28 +8417,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.43159558037638</v>
+        <v>134.4535822845271</v>
       </c>
       <c r="AB3" t="n">
-        <v>129.2054751009909</v>
+        <v>183.9653229550229</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.8742858984098</v>
+        <v>166.4079307291996</v>
       </c>
       <c r="AD3" t="n">
-        <v>94431.59558037638</v>
+        <v>134453.5822845271</v>
       </c>
       <c r="AE3" t="n">
-        <v>129205.4751009909</v>
+        <v>183965.3229550229</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.883602610044158e-06</v>
+        <v>5.86926520037536e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.645833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>116874.2858984098</v>
+        <v>166407.9307291996</v>
       </c>
     </row>
     <row r="4">
@@ -8523,28 +8523,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>92.75912476978131</v>
+        <v>124.7597354707386</v>
       </c>
       <c r="AB4" t="n">
-        <v>126.9171267537311</v>
+        <v>170.7017740820656</v>
       </c>
       <c r="AC4" t="n">
-        <v>114.8043343056947</v>
+        <v>154.4102363451653</v>
       </c>
       <c r="AD4" t="n">
-        <v>92759.12476978131</v>
+        <v>124759.7354707386</v>
       </c>
       <c r="AE4" t="n">
-        <v>126917.1267537311</v>
+        <v>170701.7740820656</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.01622223257545e-06</v>
+        <v>6.069692436003617e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.359375</v>
       </c>
       <c r="AH4" t="n">
-        <v>114804.3343056947</v>
+        <v>154410.2363451653</v>
       </c>
     </row>
     <row r="5">
@@ -8629,28 +8629,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>91.46057188063723</v>
+        <v>123.4611825815945</v>
       </c>
       <c r="AB5" t="n">
-        <v>125.1403894026948</v>
+        <v>168.9250367310292</v>
       </c>
       <c r="AC5" t="n">
-        <v>113.1971662737742</v>
+        <v>152.8030683132448</v>
       </c>
       <c r="AD5" t="n">
-        <v>91460.57188063723</v>
+        <v>123461.1825815945</v>
       </c>
       <c r="AE5" t="n">
-        <v>125140.3894026948</v>
+        <v>168925.0367310292</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.099273821262686e-06</v>
+        <v>6.195207801055948e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.190104166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>113197.1662737742</v>
+        <v>152803.0683132448</v>
       </c>
     </row>
     <row r="6">
@@ -8735,28 +8735,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>90.73232507434749</v>
+        <v>122.7329357753048</v>
       </c>
       <c r="AB6" t="n">
-        <v>124.1439699943481</v>
+        <v>167.9286173226825</v>
       </c>
       <c r="AC6" t="n">
-        <v>112.2958437352763</v>
+        <v>151.9017457747469</v>
       </c>
       <c r="AD6" t="n">
-        <v>90732.32507434749</v>
+        <v>122732.9357753048</v>
       </c>
       <c r="AE6" t="n">
-        <v>124143.9699943481</v>
+        <v>167928.6173226825</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.122936564408211e-06</v>
+        <v>6.230969162048511e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.138020833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>112295.8437352763</v>
+        <v>151901.7457747469</v>
       </c>
     </row>
     <row r="7">
@@ -8841,28 +8841,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>90.25460128057753</v>
+        <v>122.2552119815349</v>
       </c>
       <c r="AB7" t="n">
-        <v>123.490327224026</v>
+        <v>167.2749745523604</v>
       </c>
       <c r="AC7" t="n">
-        <v>111.7045837135602</v>
+        <v>151.3104857530308</v>
       </c>
       <c r="AD7" t="n">
-        <v>90254.60128057754</v>
+        <v>122255.2119815349</v>
       </c>
       <c r="AE7" t="n">
-        <v>123490.327224026</v>
+        <v>167274.9745523604</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.152270117457892e-06</v>
+        <v>6.275300783845391e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.0859375</v>
       </c>
       <c r="AH7" t="n">
-        <v>111704.5837135602</v>
+        <v>151310.4857530308</v>
       </c>
     </row>
   </sheetData>
@@ -9138,28 +9138,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.95152797745348</v>
+        <v>114.1015231799971</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.8661842587272</v>
+        <v>156.1187378187396</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.9035168488061</v>
+        <v>141.2189845953866</v>
       </c>
       <c r="AD2" t="n">
-        <v>83951.52797745349</v>
+        <v>114101.5231799971</v>
       </c>
       <c r="AE2" t="n">
-        <v>114866.1842587272</v>
+        <v>156118.7378187396</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.367503763554648e-06</v>
+        <v>6.902787246073928e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.346354166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>103903.5168488061</v>
+        <v>141218.9845953866</v>
       </c>
     </row>
     <row r="3">
@@ -9244,28 +9244,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.30302963253487</v>
+        <v>111.9264061090969</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.6646831615109</v>
+        <v>153.1426466829427</v>
       </c>
       <c r="AC3" t="n">
-        <v>91.96194848788078</v>
+        <v>138.5269274206191</v>
       </c>
       <c r="AD3" t="n">
-        <v>74303.02963253488</v>
+        <v>111926.4061090969</v>
       </c>
       <c r="AE3" t="n">
-        <v>101664.6831615109</v>
+        <v>153142.6466829427</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.578303806168134e-06</v>
+        <v>7.235954181788237e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.955729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>91961.94848788077</v>
+        <v>138526.9274206191</v>
       </c>
     </row>
     <row r="4">
@@ -9350,28 +9350,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>74.22701962306181</v>
+        <v>104.462266171626</v>
       </c>
       <c r="AB4" t="n">
-        <v>101.560682913225</v>
+        <v>142.9298811258866</v>
       </c>
       <c r="AC4" t="n">
-        <v>91.86787387732592</v>
+        <v>129.2888538746187</v>
       </c>
       <c r="AD4" t="n">
-        <v>74227.0196230618</v>
+        <v>104462.266171626</v>
       </c>
       <c r="AE4" t="n">
-        <v>101560.682913225</v>
+        <v>142929.8811258866</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.610344964908667e-06</v>
+        <v>7.286594848374308e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.903645833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>91867.87387732592</v>
+        <v>129288.8538746187</v>
       </c>
     </row>
   </sheetData>
@@ -9647,28 +9647,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.9651929248333</v>
+        <v>195.6396966388823</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.3477723726149</v>
+        <v>267.6828639554651</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.4177393602757</v>
+        <v>242.1355871148929</v>
       </c>
       <c r="AD2" t="n">
-        <v>144965.1929248333</v>
+        <v>195639.6966388823</v>
       </c>
       <c r="AE2" t="n">
-        <v>198347.7723726149</v>
+        <v>267682.8639554651</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.735076681724755e-06</v>
+        <v>3.987430793399828e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.39322916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>179417.7393602757</v>
+        <v>242135.5871148929</v>
       </c>
     </row>
     <row r="3">
@@ -9753,28 +9753,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.102492089831</v>
+        <v>160.4734053520321</v>
       </c>
       <c r="AB3" t="n">
-        <v>161.5930399914625</v>
+        <v>219.5667927895434</v>
       </c>
       <c r="AC3" t="n">
-        <v>146.1708270519779</v>
+        <v>198.6116462497015</v>
       </c>
       <c r="AD3" t="n">
-        <v>118102.4920898311</v>
+        <v>160473.4053520321</v>
       </c>
       <c r="AE3" t="n">
-        <v>161593.0399914625</v>
+        <v>219566.7927895434</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.206871845700059e-06</v>
+        <v>4.675254494132751e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.713541666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>146170.8270519779</v>
+        <v>198611.6462497015</v>
       </c>
     </row>
     <row r="4">
@@ -9859,28 +9859,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>115.2655081035279</v>
+        <v>149.1623282218398</v>
       </c>
       <c r="AB4" t="n">
-        <v>157.7113533425043</v>
+        <v>204.0904780505174</v>
       </c>
       <c r="AC4" t="n">
-        <v>142.6596031288136</v>
+        <v>184.6123692682191</v>
       </c>
       <c r="AD4" t="n">
-        <v>115265.5081035279</v>
+        <v>149162.3282218398</v>
       </c>
       <c r="AE4" t="n">
-        <v>157711.3533425043</v>
+        <v>204090.4780505174</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.376580270477541e-06</v>
+        <v>4.9226700797281e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.231770833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>142659.6031288136</v>
+        <v>184612.369268219</v>
       </c>
     </row>
     <row r="5">
@@ -9965,28 +9965,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>104.9896659080739</v>
+        <v>147.2752383157033</v>
       </c>
       <c r="AB5" t="n">
-        <v>143.6514927125284</v>
+        <v>201.5084783884117</v>
       </c>
       <c r="AC5" t="n">
-        <v>129.9415958642198</v>
+        <v>182.2767920300046</v>
       </c>
       <c r="AD5" t="n">
-        <v>104989.6659080739</v>
+        <v>147275.2383157033</v>
       </c>
       <c r="AE5" t="n">
-        <v>143651.4927125284</v>
+        <v>201508.4783884117</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.484191492449388e-06</v>
+        <v>5.079555004773543e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.9453125</v>
       </c>
       <c r="AH5" t="n">
-        <v>129941.5958642198</v>
+        <v>182276.7920300046</v>
       </c>
     </row>
     <row r="6">
@@ -10071,28 +10071,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>103.7302121287794</v>
+        <v>146.0157845364088</v>
       </c>
       <c r="AB6" t="n">
-        <v>141.9282524885193</v>
+        <v>199.7852381644026</v>
       </c>
       <c r="AC6" t="n">
-        <v>128.3828192686067</v>
+        <v>180.7180154343915</v>
       </c>
       <c r="AD6" t="n">
-        <v>103730.2121287794</v>
+        <v>146015.7845364088</v>
       </c>
       <c r="AE6" t="n">
-        <v>141928.2524885193</v>
+        <v>199785.2381644026</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.551266043302644e-06</v>
+        <v>5.177342072797198e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.776041666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>128382.8192686067</v>
+        <v>180718.0154343915</v>
       </c>
     </row>
     <row r="7">
@@ -10177,28 +10177,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>103.3508723535916</v>
+        <v>145.6364447612211</v>
       </c>
       <c r="AB7" t="n">
-        <v>141.4092230728179</v>
+        <v>199.2662087487012</v>
       </c>
       <c r="AC7" t="n">
-        <v>127.9133252918774</v>
+        <v>180.2485214576622</v>
       </c>
       <c r="AD7" t="n">
-        <v>103350.8723535916</v>
+        <v>145636.4447612211</v>
       </c>
       <c r="AE7" t="n">
-        <v>141409.2230728179</v>
+        <v>199266.2087487012</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.566245946561344e-06</v>
+        <v>5.199181068367233e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.736979166666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>127913.3252918774</v>
+        <v>180248.5214576622</v>
       </c>
     </row>
     <row r="8">
@@ -10283,28 +10283,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>102.6920710282038</v>
+        <v>144.9776434358332</v>
       </c>
       <c r="AB8" t="n">
-        <v>140.5078220351595</v>
+        <v>198.3648077110428</v>
       </c>
       <c r="AC8" t="n">
-        <v>127.0979527041285</v>
+        <v>179.4331488699133</v>
       </c>
       <c r="AD8" t="n">
-        <v>102692.0710282038</v>
+        <v>144977.6434358332</v>
       </c>
       <c r="AE8" t="n">
-        <v>140507.8220351595</v>
+        <v>198364.8077110428</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.593764938170778e-06</v>
+        <v>5.239300628919215e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.671875</v>
       </c>
       <c r="AH8" t="n">
-        <v>127097.9527041285</v>
+        <v>179433.1488699133</v>
       </c>
     </row>
     <row r="9">
@@ -10389,28 +10389,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>101.8696978226241</v>
+        <v>144.1552702302536</v>
       </c>
       <c r="AB9" t="n">
-        <v>139.3826147347407</v>
+        <v>197.239600410624</v>
       </c>
       <c r="AC9" t="n">
-        <v>126.0801336092229</v>
+        <v>178.4153297750077</v>
       </c>
       <c r="AD9" t="n">
-        <v>101869.6978226241</v>
+        <v>144155.2702302536</v>
       </c>
       <c r="AE9" t="n">
-        <v>139382.6147347407</v>
+        <v>197239.600410624</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.624777645236714e-06</v>
+        <v>5.284513629332577e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.59375</v>
       </c>
       <c r="AH9" t="n">
-        <v>126080.1336092229</v>
+        <v>178415.3297750077</v>
       </c>
     </row>
     <row r="10">
@@ -10495,28 +10495,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>101.7531684742383</v>
+        <v>144.0387408818678</v>
       </c>
       <c r="AB10" t="n">
-        <v>139.2231741393673</v>
+        <v>197.0801598152505</v>
       </c>
       <c r="AC10" t="n">
-        <v>125.9359098004956</v>
+        <v>178.2711059662804</v>
       </c>
       <c r="AD10" t="n">
-        <v>101753.1684742383</v>
+        <v>144038.7408818678</v>
       </c>
       <c r="AE10" t="n">
-        <v>139223.1741393673</v>
+        <v>197080.1598152505</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.626141630038225e-06</v>
+        <v>5.28650216407298e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.59375</v>
       </c>
       <c r="AH10" t="n">
-        <v>125935.9098004956</v>
+        <v>178271.1059662804</v>
       </c>
     </row>
     <row r="11">
@@ -10601,28 +10601,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>100.8494415568855</v>
+        <v>134.8315130212179</v>
       </c>
       <c r="AB11" t="n">
-        <v>137.986655101428</v>
+        <v>184.4824244620903</v>
       </c>
       <c r="AC11" t="n">
-        <v>124.8174024040715</v>
+        <v>166.8756807941892</v>
       </c>
       <c r="AD11" t="n">
-        <v>100849.4415568854</v>
+        <v>134831.5130212179</v>
       </c>
       <c r="AE11" t="n">
-        <v>137986.655101428</v>
+        <v>184482.4244620903</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.651985552593171e-06</v>
+        <v>5.32417966441745e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.528645833333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>124817.4024040715</v>
+        <v>166875.6807941892</v>
       </c>
     </row>
     <row r="12">
@@ -10707,28 +10707,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>100.4774483243141</v>
+        <v>134.4595197886466</v>
       </c>
       <c r="AB12" t="n">
-        <v>137.477677549441</v>
+        <v>183.9734469101033</v>
       </c>
       <c r="AC12" t="n">
-        <v>124.3570009552915</v>
+        <v>166.4152793454091</v>
       </c>
       <c r="AD12" t="n">
-        <v>100477.4483243141</v>
+        <v>134459.5197886466</v>
       </c>
       <c r="AE12" t="n">
-        <v>137477.677549441</v>
+        <v>183973.4469101033</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.658015801189326e-06</v>
+        <v>5.332971081164492e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.515625</v>
       </c>
       <c r="AH12" t="n">
-        <v>124357.0009552915</v>
+        <v>166415.2793454092</v>
       </c>
     </row>
     <row r="13">
@@ -10813,28 +10813,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>100.3493443132847</v>
+        <v>134.3314157776171</v>
       </c>
       <c r="AB13" t="n">
-        <v>137.3023999900005</v>
+        <v>183.7981693506628</v>
       </c>
       <c r="AC13" t="n">
-        <v>124.1984516401203</v>
+        <v>166.256730030238</v>
       </c>
       <c r="AD13" t="n">
-        <v>100349.3443132847</v>
+        <v>134331.4157776171</v>
       </c>
       <c r="AE13" t="n">
-        <v>137302.3999900005</v>
+        <v>183798.1693506628</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.65043013132829e-06</v>
+        <v>5.321912037081902e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.541666666666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>124198.4516401203</v>
+        <v>166256.730030238</v>
       </c>
     </row>
   </sheetData>
@@ -11110,28 +11110,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.86083950299697</v>
+        <v>110.5170360811512</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.6373679364256</v>
+        <v>151.214284433691</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.0782928211227</v>
+        <v>136.7826053579619</v>
       </c>
       <c r="AD2" t="n">
-        <v>80860.83950299697</v>
+        <v>110517.0360811512</v>
       </c>
       <c r="AE2" t="n">
-        <v>110637.3679364256</v>
+        <v>151214.284433691</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.546287421274285e-06</v>
+        <v>7.284220361240054e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>100078.2928211227</v>
+        <v>136782.6053579619</v>
       </c>
     </row>
     <row r="3">
@@ -11216,28 +11216,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.10683470665066</v>
+        <v>101.8482826308254</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.6597523746356</v>
+        <v>139.3533135245502</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.24380407785705</v>
+        <v>126.0536288654085</v>
       </c>
       <c r="AD3" t="n">
-        <v>72106.83470665065</v>
+        <v>101848.2826308254</v>
       </c>
       <c r="AE3" t="n">
-        <v>98659.7523746356</v>
+        <v>139353.3135245502</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.712329679077689e-06</v>
+        <v>7.550259061181911e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>89243.80407785704</v>
+        <v>126053.6288654085</v>
       </c>
     </row>
   </sheetData>
@@ -11513,28 +11513,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.0228592519948</v>
+        <v>164.1036720158381</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.3253034140106</v>
+        <v>224.5338837950222</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.2605727022712</v>
+        <v>203.104685060975</v>
       </c>
       <c r="AD2" t="n">
-        <v>123022.8592519948</v>
+        <v>164103.6720158381</v>
       </c>
       <c r="AE2" t="n">
-        <v>168325.3034140106</v>
+        <v>224533.8837950222</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.186343166165016e-06</v>
+        <v>4.731219974000107e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.16927083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>152260.5727022712</v>
+        <v>203104.685060975</v>
       </c>
     </row>
     <row r="3">
@@ -11619,28 +11619,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.7126152073857</v>
+        <v>142.6455560038279</v>
       </c>
       <c r="AB3" t="n">
-        <v>150.1136403056612</v>
+        <v>195.1739428021384</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.7870051607472</v>
+        <v>176.5468156295067</v>
       </c>
       <c r="AD3" t="n">
-        <v>109712.6152073857</v>
+        <v>142645.5560038279</v>
       </c>
       <c r="AE3" t="n">
-        <v>150113.6403056612</v>
+        <v>195173.9428021384</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.541108296122098e-06</v>
+        <v>5.257990563795633e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.153645833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>135787.0051607472</v>
+        <v>176546.8156295067</v>
       </c>
     </row>
     <row r="4">
@@ -11725,28 +11725,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>99.08359296787141</v>
+        <v>140.1643162231638</v>
       </c>
       <c r="AB4" t="n">
-        <v>135.5705431581986</v>
+        <v>191.7790010696619</v>
       </c>
       <c r="AC4" t="n">
-        <v>122.6318807936688</v>
+        <v>173.4758823711461</v>
       </c>
       <c r="AD4" t="n">
-        <v>99083.59296787142</v>
+        <v>140164.3162231638</v>
       </c>
       <c r="AE4" t="n">
-        <v>135570.5431581986</v>
+        <v>191779.0010696619</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.70182237322748e-06</v>
+        <v>5.496625767868501e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH4" t="n">
-        <v>122631.8807936688</v>
+        <v>173475.8823711461</v>
       </c>
     </row>
     <row r="5">
@@ -11831,28 +11831,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>97.79741380990727</v>
+        <v>130.8156059523701</v>
       </c>
       <c r="AB5" t="n">
-        <v>133.8107360920532</v>
+        <v>178.9876832411795</v>
       </c>
       <c r="AC5" t="n">
-        <v>121.0400272440109</v>
+        <v>161.9053499634826</v>
       </c>
       <c r="AD5" t="n">
-        <v>97797.41380990727</v>
+        <v>130815.6059523701</v>
       </c>
       <c r="AE5" t="n">
-        <v>133810.7360920532</v>
+        <v>178987.6832411795</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.784418462389997e-06</v>
+        <v>5.619268008970965e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.5546875</v>
       </c>
       <c r="AH5" t="n">
-        <v>121040.0272440109</v>
+        <v>161905.3499634826</v>
       </c>
     </row>
     <row r="6">
@@ -11937,28 +11937,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>96.8359151472681</v>
+        <v>129.6835150891387</v>
       </c>
       <c r="AB6" t="n">
-        <v>132.4951712035036</v>
+        <v>177.4387065777831</v>
       </c>
       <c r="AC6" t="n">
-        <v>119.8500180220173</v>
+        <v>160.5042054588379</v>
       </c>
       <c r="AD6" t="n">
-        <v>96835.9151472681</v>
+        <v>129683.5150891387</v>
       </c>
       <c r="AE6" t="n">
-        <v>132495.1712035036</v>
+        <v>177438.7065777831</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.84007130921426e-06</v>
+        <v>5.70190375997886e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.4375</v>
       </c>
       <c r="AH6" t="n">
-        <v>119850.0180220173</v>
+        <v>160504.2054588379</v>
       </c>
     </row>
     <row r="7">
@@ -12043,28 +12043,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>96.12122289606928</v>
+        <v>128.9688228379399</v>
       </c>
       <c r="AB7" t="n">
-        <v>131.5172977354171</v>
+        <v>176.4608331096966</v>
       </c>
       <c r="AC7" t="n">
-        <v>118.9654714252705</v>
+        <v>159.6196588620911</v>
       </c>
       <c r="AD7" t="n">
-        <v>96121.22289606929</v>
+        <v>128968.8228379399</v>
       </c>
       <c r="AE7" t="n">
-        <v>131517.2977354171</v>
+        <v>176460.8331096966</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.867760901755791e-06</v>
+        <v>5.74301846309544e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.372395833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>118965.4714252705</v>
+        <v>159619.6588620911</v>
       </c>
     </row>
     <row r="8">
@@ -12149,28 +12149,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>95.3481597083056</v>
+        <v>128.1957596501762</v>
       </c>
       <c r="AB8" t="n">
-        <v>130.4595585767785</v>
+        <v>175.403093951058</v>
       </c>
       <c r="AC8" t="n">
-        <v>118.0086814073859</v>
+        <v>158.6628688442065</v>
       </c>
       <c r="AD8" t="n">
-        <v>95348.1597083056</v>
+        <v>128195.7596501762</v>
       </c>
       <c r="AE8" t="n">
-        <v>130459.5585767785</v>
+        <v>175403.093951058</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.899082731953264e-06</v>
+        <v>5.789526469585802e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.307291666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>118008.6814073859</v>
+        <v>158662.8688442065</v>
       </c>
     </row>
     <row r="9">
@@ -12255,28 +12255,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>94.94982506961739</v>
+        <v>127.797425011488</v>
       </c>
       <c r="AB9" t="n">
-        <v>129.9145395508415</v>
+        <v>174.8580749251211</v>
       </c>
       <c r="AC9" t="n">
-        <v>117.5156782323452</v>
+        <v>158.1698656691658</v>
       </c>
       <c r="AD9" t="n">
-        <v>94949.82506961739</v>
+        <v>127797.425011488</v>
       </c>
       <c r="AE9" t="n">
-        <v>129914.5395508416</v>
+        <v>174858.0749251211</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.899605177095558e-06</v>
+        <v>5.79030221870121e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.307291666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>117515.6782323451</v>
+        <v>158169.8656691658</v>
       </c>
     </row>
     <row r="10">
@@ -12361,28 +12361,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>94.85596338902187</v>
+        <v>127.7035633308925</v>
       </c>
       <c r="AB10" t="n">
-        <v>129.7861138585658</v>
+        <v>174.7296492328452</v>
       </c>
       <c r="AC10" t="n">
-        <v>117.3995093078935</v>
+        <v>158.0536967447141</v>
       </c>
       <c r="AD10" t="n">
-        <v>94855.96338902187</v>
+        <v>127703.5633308925</v>
       </c>
       <c r="AE10" t="n">
-        <v>129786.1138585657</v>
+        <v>174729.6492328452</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.897888571628024e-06</v>
+        <v>5.787753328750586e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.307291666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>117399.5093078935</v>
+        <v>158053.6967447141</v>
       </c>
     </row>
   </sheetData>
@@ -12658,28 +12658,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>129.4430556948855</v>
+        <v>179.5087515701934</v>
       </c>
       <c r="AB2" t="n">
-        <v>177.1096994262464</v>
+        <v>245.611793265425</v>
       </c>
       <c r="AC2" t="n">
-        <v>160.2065982880792</v>
+        <v>222.170948434561</v>
       </c>
       <c r="AD2" t="n">
-        <v>129443.0556948855</v>
+        <v>179508.7515701934</v>
       </c>
       <c r="AE2" t="n">
-        <v>177109.6994262463</v>
+        <v>245611.793265425</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.951862664456988e-06</v>
+        <v>4.340544254411001e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.75520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>160206.5982880792</v>
+        <v>222170.948434561</v>
       </c>
     </row>
     <row r="3">
@@ -12764,28 +12764,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.9971786711394</v>
+        <v>154.6191170787801</v>
       </c>
       <c r="AB3" t="n">
-        <v>154.60772494148</v>
+        <v>211.5566973011134</v>
       </c>
       <c r="AC3" t="n">
-        <v>139.8521806664123</v>
+        <v>191.3660230324451</v>
       </c>
       <c r="AD3" t="n">
-        <v>112997.1786711394</v>
+        <v>154619.1170787801</v>
       </c>
       <c r="AE3" t="n">
-        <v>154607.72494148</v>
+        <v>211556.6973011134</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.413321252549569e-06</v>
+        <v>5.019092564707247e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>139852.1806664123</v>
+        <v>191366.0230324451</v>
       </c>
     </row>
     <row r="4">
@@ -12870,28 +12870,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>102.8146455607923</v>
+        <v>144.5218353144536</v>
       </c>
       <c r="AB4" t="n">
-        <v>140.6755339182538</v>
+        <v>197.7411509305364</v>
       </c>
       <c r="AC4" t="n">
-        <v>127.2496584004854</v>
+        <v>178.8690130172304</v>
       </c>
       <c r="AD4" t="n">
-        <v>102814.6455607923</v>
+        <v>144521.8353144536</v>
       </c>
       <c r="AE4" t="n">
-        <v>140675.5339182538</v>
+        <v>197741.1509305364</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.536297248372666e-06</v>
+        <v>5.199921692880325e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.971354166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>127249.6584004854</v>
+        <v>178869.0130172304</v>
       </c>
     </row>
     <row r="5">
@@ -12976,28 +12976,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>101.7108239626353</v>
+        <v>143.4180137162967</v>
       </c>
       <c r="AB5" t="n">
-        <v>139.1652365104841</v>
+        <v>196.2308535227667</v>
       </c>
       <c r="AC5" t="n">
-        <v>125.8835016575971</v>
+        <v>177.5028562743421</v>
       </c>
       <c r="AD5" t="n">
-        <v>101710.8239626353</v>
+        <v>143418.0137162966</v>
       </c>
       <c r="AE5" t="n">
-        <v>139165.2365104841</v>
+        <v>196230.8535227667</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.607230875299369e-06</v>
+        <v>5.304225511112964e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.802083333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>125883.5016575971</v>
+        <v>177502.8562743421</v>
       </c>
     </row>
     <row r="6">
@@ -13082,28 +13082,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>100.645713871833</v>
+        <v>142.3529036254943</v>
       </c>
       <c r="AB6" t="n">
-        <v>137.7079058949082</v>
+        <v>194.7735229071909</v>
       </c>
       <c r="AC6" t="n">
-        <v>124.5652566305949</v>
+        <v>176.1846112473399</v>
       </c>
       <c r="AD6" t="n">
-        <v>100645.713871833</v>
+        <v>142352.9036254943</v>
       </c>
       <c r="AE6" t="n">
-        <v>137707.9058949082</v>
+        <v>194773.5229071909</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.665684084017661e-06</v>
+        <v>5.390177592254498e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.658854166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>124565.2566305949</v>
+        <v>176184.61124734</v>
       </c>
     </row>
     <row r="7">
@@ -13188,28 +13188,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>99.91316416388855</v>
+        <v>141.6203539175499</v>
       </c>
       <c r="AB7" t="n">
-        <v>136.7055990666869</v>
+        <v>193.7712160789695</v>
       </c>
       <c r="AC7" t="n">
-        <v>123.6586085593122</v>
+        <v>175.2779631760573</v>
       </c>
       <c r="AD7" t="n">
-        <v>99913.16416388855</v>
+        <v>141620.3539175499</v>
       </c>
       <c r="AE7" t="n">
-        <v>136705.5990666869</v>
+        <v>193771.2160789695</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.692058717809652e-06</v>
+        <v>5.428959974154057e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.59375</v>
       </c>
       <c r="AH7" t="n">
-        <v>123658.6085593122</v>
+        <v>175277.9631760573</v>
       </c>
     </row>
     <row r="8">
@@ -13294,28 +13294,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>99.26087572832307</v>
+        <v>132.7802410694811</v>
       </c>
       <c r="AB8" t="n">
-        <v>135.8131092522118</v>
+        <v>181.6757836819937</v>
       </c>
       <c r="AC8" t="n">
-        <v>122.8512967201131</v>
+        <v>164.336901870999</v>
       </c>
       <c r="AD8" t="n">
-        <v>99260.87572832307</v>
+        <v>132780.2410694811</v>
       </c>
       <c r="AE8" t="n">
-        <v>135813.1092522118</v>
+        <v>181675.7836819937</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.723552273132436e-06</v>
+        <v>5.475269435719887e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.528645833333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>122851.2967201131</v>
+        <v>164336.901870999</v>
       </c>
     </row>
     <row r="9">
@@ -13400,28 +13400,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>98.68767965731847</v>
+        <v>132.0364527978842</v>
       </c>
       <c r="AB9" t="n">
-        <v>135.0288371002378</v>
+        <v>180.6580997551728</v>
       </c>
       <c r="AC9" t="n">
-        <v>122.1418744015903</v>
+        <v>163.4163442698252</v>
       </c>
       <c r="AD9" t="n">
-        <v>98687.67965731847</v>
+        <v>132036.4527978842</v>
       </c>
       <c r="AE9" t="n">
-        <v>135028.8371002378</v>
+        <v>180658.0997551728</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.752364488605757e-06</v>
+        <v>5.517636141270052e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.463541666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>122141.8744015903</v>
+        <v>163416.3442698252</v>
       </c>
     </row>
     <row r="10">
@@ -13506,28 +13506,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>98.0764939488092</v>
+        <v>131.425267089375</v>
       </c>
       <c r="AB10" t="n">
-        <v>134.1925858502454</v>
+        <v>179.8218485051804</v>
       </c>
       <c r="AC10" t="n">
-        <v>121.3854337972109</v>
+        <v>162.6599036654457</v>
       </c>
       <c r="AD10" t="n">
-        <v>98076.49394880921</v>
+        <v>131425.267089375</v>
       </c>
       <c r="AE10" t="n">
-        <v>134192.5858502454</v>
+        <v>179821.8485051804</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.74707493635727e-06</v>
+        <v>5.509858158948236e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.4765625</v>
       </c>
       <c r="AH10" t="n">
-        <v>121385.4337972109</v>
+        <v>162659.9036654457</v>
       </c>
     </row>
     <row r="11">
@@ -13612,28 +13612,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>97.60413271679208</v>
+        <v>130.9529058573579</v>
       </c>
       <c r="AB11" t="n">
-        <v>133.5462803734931</v>
+        <v>179.1755430284281</v>
       </c>
       <c r="AC11" t="n">
-        <v>120.8008108080642</v>
+        <v>162.0752806762991</v>
       </c>
       <c r="AD11" t="n">
-        <v>97604.13271679208</v>
+        <v>130952.9058573579</v>
       </c>
       <c r="AE11" t="n">
-        <v>133546.2803734931</v>
+        <v>179175.543028428</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.781810475316222e-06</v>
+        <v>5.560934770969373e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.3984375</v>
       </c>
       <c r="AH11" t="n">
-        <v>120800.8108080642</v>
+        <v>162075.2806762991</v>
       </c>
     </row>
   </sheetData>
@@ -13909,28 +13909,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>160.8182224792428</v>
+        <v>212.2249423831966</v>
       </c>
       <c r="AB2" t="n">
-        <v>220.0385867952508</v>
+        <v>290.3755288722266</v>
       </c>
       <c r="AC2" t="n">
-        <v>199.0384128976714</v>
+        <v>262.6624959413612</v>
       </c>
       <c r="AD2" t="n">
-        <v>160818.2224792428</v>
+        <v>212224.9423831966</v>
       </c>
       <c r="AE2" t="n">
-        <v>220038.5867952508</v>
+        <v>290375.5288722266</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.546493455171658e-06</v>
+        <v>3.684196719345844e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.03125</v>
       </c>
       <c r="AH2" t="n">
-        <v>199038.4128976714</v>
+        <v>262662.4959413612</v>
       </c>
     </row>
     <row r="3">
@@ -14015,28 +14015,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.3286712881456</v>
+        <v>173.6499608289767</v>
       </c>
       <c r="AB3" t="n">
-        <v>167.375484816461</v>
+        <v>237.5955373016909</v>
       </c>
       <c r="AC3" t="n">
-        <v>151.4014034585927</v>
+        <v>214.9197526891172</v>
       </c>
       <c r="AD3" t="n">
-        <v>122328.6712881456</v>
+        <v>173649.9608289767</v>
       </c>
       <c r="AE3" t="n">
-        <v>167375.484816461</v>
+        <v>237595.5373016908</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.061664760279562e-06</v>
+        <v>4.429532399798914e-06</v>
       </c>
       <c r="AG3" t="n">
         <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>151401.4034585927</v>
+        <v>214919.7526891172</v>
       </c>
     </row>
     <row r="4">
@@ -14121,28 +14121,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>119.322054350178</v>
+        <v>162.2320303918234</v>
       </c>
       <c r="AB4" t="n">
-        <v>163.2616988793581</v>
+        <v>221.9730211540456</v>
       </c>
       <c r="AC4" t="n">
-        <v>147.6802314775908</v>
+        <v>200.7882275562591</v>
       </c>
       <c r="AD4" t="n">
-        <v>119322.054350178</v>
+        <v>162232.0303918234</v>
       </c>
       <c r="AE4" t="n">
-        <v>163261.6988793581</v>
+        <v>221973.0211540456</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.224243939960582e-06</v>
+        <v>4.664747487117635e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.505208333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>147680.2314775907</v>
+        <v>200788.2275562591</v>
       </c>
     </row>
     <row r="5">
@@ -14227,28 +14227,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>117.4255009703715</v>
+        <v>151.7535713122388</v>
       </c>
       <c r="AB5" t="n">
-        <v>160.6667508750781</v>
+        <v>207.6359311643765</v>
       </c>
       <c r="AC5" t="n">
-        <v>145.3329416688059</v>
+        <v>187.8194493129672</v>
       </c>
       <c r="AD5" t="n">
-        <v>117425.5009703715</v>
+        <v>151753.5713122388</v>
       </c>
       <c r="AE5" t="n">
-        <v>160666.7508750781</v>
+        <v>207635.9311643765</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.33141444118302e-06</v>
+        <v>4.819798821811813e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.192708333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>145332.941668806</v>
+        <v>187819.4493129672</v>
       </c>
     </row>
     <row r="6">
@@ -14333,28 +14333,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>116.4618145344288</v>
+        <v>150.789884876296</v>
       </c>
       <c r="AB6" t="n">
-        <v>159.3481925785769</v>
+        <v>206.3173728678753</v>
       </c>
       <c r="AC6" t="n">
-        <v>144.1402247255142</v>
+        <v>186.6267323696756</v>
       </c>
       <c r="AD6" t="n">
-        <v>116461.8145344288</v>
+        <v>150789.884876296</v>
       </c>
       <c r="AE6" t="n">
-        <v>159348.1925785769</v>
+        <v>206317.3728678753</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.384117387997128e-06</v>
+        <v>4.896047996282716e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.049479166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>144140.2247255142</v>
+        <v>186626.7323696756</v>
       </c>
     </row>
     <row r="7">
@@ -14439,28 +14439,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>107.062653701553</v>
+        <v>149.8872888886266</v>
       </c>
       <c r="AB7" t="n">
-        <v>146.4878460653321</v>
+        <v>205.082401217822</v>
       </c>
       <c r="AC7" t="n">
-        <v>132.5072516338797</v>
+        <v>185.5096246806093</v>
       </c>
       <c r="AD7" t="n">
-        <v>107062.653701553</v>
+        <v>149887.2888886266</v>
       </c>
       <c r="AE7" t="n">
-        <v>146487.8460653321</v>
+        <v>205082.401217822</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.412751087226043e-06</v>
+        <v>4.937474445091237e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.971354166666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>132507.2516338798</v>
+        <v>185509.6246806093</v>
       </c>
     </row>
     <row r="8">
@@ -14545,28 +14545,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>106.4062278810206</v>
+        <v>149.2308630680943</v>
       </c>
       <c r="AB8" t="n">
-        <v>145.5896952982169</v>
+        <v>204.1842504507068</v>
       </c>
       <c r="AC8" t="n">
-        <v>131.6948191154152</v>
+        <v>184.6971921621448</v>
       </c>
       <c r="AD8" t="n">
-        <v>106406.2278810206</v>
+        <v>149230.8630680943</v>
       </c>
       <c r="AE8" t="n">
-        <v>145589.6952982169</v>
+        <v>204184.2504507068</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.440890696328575e-06</v>
+        <v>4.978186057889093e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.90625</v>
       </c>
       <c r="AH8" t="n">
-        <v>131694.8191154152</v>
+        <v>184697.1921621448</v>
       </c>
     </row>
     <row r="9">
@@ -14651,28 +14651,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>105.7870695795795</v>
+        <v>148.6117047666532</v>
       </c>
       <c r="AB9" t="n">
-        <v>144.7425355948491</v>
+        <v>203.337090747339</v>
       </c>
       <c r="AC9" t="n">
-        <v>130.9285111451405</v>
+        <v>183.9308841918701</v>
       </c>
       <c r="AD9" t="n">
-        <v>105787.0695795795</v>
+        <v>148611.7047666532</v>
       </c>
       <c r="AE9" t="n">
-        <v>144742.5355948491</v>
+        <v>203337.090747339</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.471359587455481e-06</v>
+        <v>5.022267611880084e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.828125</v>
       </c>
       <c r="AH9" t="n">
-        <v>130928.5111451405</v>
+        <v>183930.8841918701</v>
       </c>
     </row>
     <row r="10">
@@ -14757,28 +14757,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>104.8800692875755</v>
+        <v>147.7047044746492</v>
       </c>
       <c r="AB10" t="n">
-        <v>143.501537781301</v>
+        <v>202.0960929337909</v>
       </c>
       <c r="AC10" t="n">
-        <v>129.8059524211656</v>
+        <v>182.8083254678952</v>
       </c>
       <c r="AD10" t="n">
-        <v>104880.0692875755</v>
+        <v>147704.7044746492</v>
       </c>
       <c r="AE10" t="n">
-        <v>143501.537781301</v>
+        <v>202096.0929337909</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.511357359591187e-06</v>
+        <v>5.080135288933893e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.723958333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>129805.9524211656</v>
+        <v>182808.3254678952</v>
       </c>
     </row>
     <row r="11">
@@ -14863,28 +14863,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>104.8328907651751</v>
+        <v>147.6575259522488</v>
       </c>
       <c r="AB11" t="n">
-        <v>143.4369860455833</v>
+        <v>202.0315411980733</v>
       </c>
       <c r="AC11" t="n">
-        <v>129.7475614125059</v>
+        <v>182.7499344592355</v>
       </c>
       <c r="AD11" t="n">
-        <v>104832.8907651751</v>
+        <v>147657.5259522488</v>
       </c>
       <c r="AE11" t="n">
-        <v>143436.9860455833</v>
+        <v>202031.5411980732</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.503946007695454e-06</v>
+        <v>5.069412748773923e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.736979166666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>129747.5614125059</v>
+        <v>182749.9344592355</v>
       </c>
     </row>
     <row r="12">
@@ -14969,28 +14969,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>103.9806455060718</v>
+        <v>146.8052806931455</v>
       </c>
       <c r="AB12" t="n">
-        <v>142.2709064836714</v>
+        <v>200.8654616361613</v>
       </c>
       <c r="AC12" t="n">
-        <v>128.6927708473796</v>
+        <v>181.6951438941092</v>
       </c>
       <c r="AD12" t="n">
-        <v>103980.6455060718</v>
+        <v>146805.2806931455</v>
       </c>
       <c r="AE12" t="n">
-        <v>142270.9064836714</v>
+        <v>200865.4616361613</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.53187386388668e-06</v>
+        <v>5.109818003281494e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.671875</v>
       </c>
       <c r="AH12" t="n">
-        <v>128692.7708473796</v>
+        <v>181695.1438941091</v>
       </c>
     </row>
     <row r="13">
@@ -15075,28 +15075,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>103.6873581368593</v>
+        <v>146.511993323933</v>
       </c>
       <c r="AB13" t="n">
-        <v>141.8696177661896</v>
+        <v>200.4641729186795</v>
       </c>
       <c r="AC13" t="n">
-        <v>128.3297805618818</v>
+        <v>181.3321536086114</v>
       </c>
       <c r="AD13" t="n">
-        <v>103687.3581368593</v>
+        <v>146511.993323933</v>
       </c>
       <c r="AE13" t="n">
-        <v>141869.6177661896</v>
+        <v>200464.1729186795</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.53657948413794e-06</v>
+        <v>5.116625965287826e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.658854166666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>128329.7805618818</v>
+        <v>181332.1536086114</v>
       </c>
     </row>
     <row r="14">
@@ -15181,28 +15181,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>103.5034547982664</v>
+        <v>146.3280899853401</v>
       </c>
       <c r="AB14" t="n">
-        <v>141.6179931050842</v>
+        <v>200.2125482575741</v>
       </c>
       <c r="AC14" t="n">
-        <v>128.1021706052748</v>
+        <v>181.1045436520044</v>
       </c>
       <c r="AD14" t="n">
-        <v>103503.4547982664</v>
+        <v>146328.08998534</v>
       </c>
       <c r="AE14" t="n">
-        <v>141617.9931050842</v>
+        <v>200212.5482575741</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.529215188444718e-06</v>
+        <v>5.105971504747918e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.684895833333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>128102.1706052748</v>
+        <v>181104.5436520044</v>
       </c>
     </row>
     <row r="15">
@@ -15287,28 +15287,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>102.9039018651173</v>
+        <v>145.728537052191</v>
       </c>
       <c r="AB15" t="n">
-        <v>140.7976583315414</v>
+        <v>199.3922134840313</v>
       </c>
       <c r="AC15" t="n">
-        <v>127.3601274311716</v>
+        <v>180.3625004779012</v>
       </c>
       <c r="AD15" t="n">
-        <v>102903.9018651173</v>
+        <v>145728.537052191</v>
       </c>
       <c r="AE15" t="n">
-        <v>140797.6583315414</v>
+        <v>199392.2134840313</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.529356357052256e-06</v>
+        <v>5.106175743608108e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8.684895833333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>127360.1274311716</v>
+        <v>180362.5004779012</v>
       </c>
     </row>
     <row r="16">
@@ -15393,28 +15393,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>102.7613790258708</v>
+        <v>145.5860142129445</v>
       </c>
       <c r="AB16" t="n">
-        <v>140.6026522952206</v>
+        <v>199.1972074477104</v>
       </c>
       <c r="AC16" t="n">
-        <v>127.1837324972644</v>
+        <v>180.186105543994</v>
       </c>
       <c r="AD16" t="n">
-        <v>102761.3790258708</v>
+        <v>145586.0142129445</v>
       </c>
       <c r="AE16" t="n">
-        <v>140602.6522952206</v>
+        <v>199197.2074477104</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.532603235025625e-06</v>
+        <v>5.110873237392476e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>8.671875</v>
       </c>
       <c r="AH16" t="n">
-        <v>127183.7324972644</v>
+        <v>180186.1055439941</v>
       </c>
     </row>
   </sheetData>
@@ -15690,28 +15690,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.6056832085896</v>
+        <v>159.9994780285631</v>
       </c>
       <c r="AB2" t="n">
-        <v>163.6497723962587</v>
+        <v>218.9183445173756</v>
       </c>
       <c r="AC2" t="n">
-        <v>148.0312678027031</v>
+        <v>198.0250849705263</v>
       </c>
       <c r="AD2" t="n">
-        <v>119605.6832085896</v>
+        <v>159999.4780285631</v>
       </c>
       <c r="AE2" t="n">
-        <v>163649.7723962587</v>
+        <v>218918.3445173756</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.304133172373822e-06</v>
+        <v>4.961765947675801e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.02604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>148031.2678027031</v>
+        <v>198025.0849705263</v>
       </c>
     </row>
     <row r="3">
@@ -15796,28 +15796,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.78446037511506</v>
+        <v>137.1781656865376</v>
       </c>
       <c r="AB3" t="n">
-        <v>132.4247685142196</v>
+        <v>187.693218165788</v>
       </c>
       <c r="AC3" t="n">
-        <v>119.7863344665876</v>
+        <v>169.7800408531843</v>
       </c>
       <c r="AD3" t="n">
-        <v>96784.46037511506</v>
+        <v>137178.1656865376</v>
       </c>
       <c r="AE3" t="n">
-        <v>132424.7685142196</v>
+        <v>187693.218165788</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.763650741732376e-06</v>
+        <v>5.651816411460216e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.802083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>119786.3344665876</v>
+        <v>169780.0408531843</v>
       </c>
     </row>
     <row r="4">
@@ -15902,28 +15902,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>94.65185745811786</v>
+        <v>126.9498430448926</v>
       </c>
       <c r="AB4" t="n">
-        <v>129.5068471193848</v>
+        <v>173.6983758857485</v>
       </c>
       <c r="AC4" t="n">
-        <v>117.1468953943466</v>
+        <v>157.1208466784628</v>
       </c>
       <c r="AD4" t="n">
-        <v>94651.85745811785</v>
+        <v>126949.8430448926</v>
       </c>
       <c r="AE4" t="n">
-        <v>129506.8471193849</v>
+        <v>173698.3758857485</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.93057680498244e-06</v>
+        <v>5.902486712324238e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.4375</v>
       </c>
       <c r="AH4" t="n">
-        <v>117146.8953943466</v>
+        <v>157120.8466784628</v>
       </c>
     </row>
     <row r="5">
@@ -16008,28 +16008,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>93.95257431448198</v>
+        <v>126.2505599012567</v>
       </c>
       <c r="AB5" t="n">
-        <v>128.5500570720677</v>
+        <v>172.7415858384313</v>
       </c>
       <c r="AC5" t="n">
-        <v>116.2814200462819</v>
+        <v>156.255371330398</v>
       </c>
       <c r="AD5" t="n">
-        <v>93952.57431448197</v>
+        <v>126250.5599012567</v>
       </c>
       <c r="AE5" t="n">
-        <v>128550.0570720677</v>
+        <v>172741.5858384313</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.966644848841138e-06</v>
+        <v>5.956649538845178e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.359375</v>
       </c>
       <c r="AH5" t="n">
-        <v>116281.4200462819</v>
+        <v>156255.371330398</v>
       </c>
     </row>
     <row r="6">
@@ -16114,28 +16114,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>92.70217287024073</v>
+        <v>125.0001584570154</v>
       </c>
       <c r="AB6" t="n">
-        <v>126.8392026522392</v>
+        <v>171.0307314186029</v>
       </c>
       <c r="AC6" t="n">
-        <v>114.733847171082</v>
+        <v>154.7077984551981</v>
       </c>
       <c r="AD6" t="n">
-        <v>92702.17287024073</v>
+        <v>125000.1584570154</v>
       </c>
       <c r="AE6" t="n">
-        <v>126839.2026522392</v>
+        <v>171030.7314186029</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.034428335641216e-06</v>
+        <v>6.058438958058489e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.216145833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>114733.847171082</v>
+        <v>154707.7984551981</v>
       </c>
     </row>
     <row r="7">
@@ -16220,28 +16220,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>91.82582179373763</v>
+        <v>124.1238073805124</v>
       </c>
       <c r="AB7" t="n">
-        <v>125.6401404474874</v>
+        <v>169.8316692138511</v>
       </c>
       <c r="AC7" t="n">
-        <v>113.649221780257</v>
+        <v>153.6231730643731</v>
       </c>
       <c r="AD7" t="n">
-        <v>91825.82179373763</v>
+        <v>124123.8073805124</v>
       </c>
       <c r="AE7" t="n">
-        <v>125640.1404474874</v>
+        <v>169831.6692138511</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.070267295241108e-06</v>
+        <v>6.112257772272661e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.138020833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>113649.221780257</v>
+        <v>153623.1730643731</v>
       </c>
     </row>
     <row r="8">
@@ -16326,28 +16326,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>91.96314863926084</v>
+        <v>124.2611342260356</v>
       </c>
       <c r="AB8" t="n">
-        <v>125.828037095965</v>
+        <v>170.0195658623287</v>
       </c>
       <c r="AC8" t="n">
-        <v>113.8191858363185</v>
+        <v>153.7931371204346</v>
       </c>
       <c r="AD8" t="n">
-        <v>91963.14863926083</v>
+        <v>124261.1342260356</v>
       </c>
       <c r="AE8" t="n">
-        <v>125828.037095965</v>
+        <v>170019.5658623287</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.064489281157887e-06</v>
+        <v>6.103581017424211e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.151041666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>113819.1858363185</v>
+        <v>153793.1371204346</v>
       </c>
     </row>
   </sheetData>
@@ -16623,28 +16623,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.4676915662868</v>
+        <v>132.9005490431592</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.832572039556</v>
+        <v>181.8403943591933</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.5825862168767</v>
+        <v>164.4858023361992</v>
       </c>
       <c r="AD2" t="n">
-        <v>101467.6915662868</v>
+        <v>132900.5490431592</v>
       </c>
       <c r="AE2" t="n">
-        <v>138832.572039556</v>
+        <v>181840.3943591932</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.781010574990188e-06</v>
+        <v>5.79911267687863e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.127604166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>125582.5862168767</v>
+        <v>164485.8023361992</v>
       </c>
     </row>
     <row r="3">
@@ -16729,28 +16729,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>89.51854102939406</v>
+        <v>120.8660576516948</v>
       </c>
       <c r="AB3" t="n">
-        <v>122.4832171156708</v>
+        <v>165.3742723131105</v>
       </c>
       <c r="AC3" t="n">
-        <v>110.7935907804581</v>
+        <v>149.5911838678419</v>
       </c>
       <c r="AD3" t="n">
-        <v>89518.54102939405</v>
+        <v>120866.0576516948</v>
       </c>
       <c r="AE3" t="n">
-        <v>122483.2171156708</v>
+        <v>165374.2723131104</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.158045752451657e-06</v>
+        <v>6.377389154524203e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.307291666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>110793.5907804582</v>
+        <v>149591.1838678419</v>
       </c>
     </row>
     <row r="4">
@@ -16835,28 +16835,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>88.03064240260032</v>
+        <v>119.3781590249011</v>
       </c>
       <c r="AB4" t="n">
-        <v>120.447408573038</v>
+        <v>163.3384637704776</v>
       </c>
       <c r="AC4" t="n">
-        <v>108.9520769478583</v>
+        <v>147.7496700352421</v>
       </c>
       <c r="AD4" t="n">
-        <v>88030.64240260032</v>
+        <v>119378.159024901</v>
       </c>
       <c r="AE4" t="n">
-        <v>120447.408573038</v>
+        <v>163338.4637704776</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.280171211480317e-06</v>
+        <v>6.564698680265098e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.059895833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>108952.0769478583</v>
+        <v>147749.6700352421</v>
       </c>
     </row>
     <row r="5">
@@ -16941,28 +16941,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>87.42042552010238</v>
+        <v>118.7679421424031</v>
       </c>
       <c r="AB5" t="n">
-        <v>119.6124829135358</v>
+        <v>162.5035381109755</v>
       </c>
       <c r="AC5" t="n">
-        <v>108.1968354214733</v>
+        <v>146.994428508857</v>
       </c>
       <c r="AD5" t="n">
-        <v>87420.42552010238</v>
+        <v>118767.9421424031</v>
       </c>
       <c r="AE5" t="n">
-        <v>119612.4829135358</v>
+        <v>162503.5381109755</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.279773495048395e-06</v>
+        <v>6.564088683980661e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.072916666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>108196.8354214733</v>
+        <v>146994.428508857</v>
       </c>
     </row>
     <row r="6">
@@ -17047,28 +17047,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>87.31038937133184</v>
+        <v>118.6579059936326</v>
       </c>
       <c r="AB6" t="n">
-        <v>119.4619266003358</v>
+        <v>162.3529817977754</v>
       </c>
       <c r="AC6" t="n">
-        <v>108.0606479914979</v>
+        <v>146.8582410788816</v>
       </c>
       <c r="AD6" t="n">
-        <v>87310.38937133184</v>
+        <v>118657.9059936326</v>
       </c>
       <c r="AE6" t="n">
-        <v>119461.9266003358</v>
+        <v>162352.9817977754</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.308965881151425e-06</v>
+        <v>6.608862411258283e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.0078125</v>
       </c>
       <c r="AH6" t="n">
-        <v>108060.6479914979</v>
+        <v>146858.2410788816</v>
       </c>
     </row>
   </sheetData>
@@ -31301,28 +31301,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.38479529256965</v>
+        <v>125.6407548884546</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.5637320643309</v>
+        <v>171.9072237172174</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.1527372848942</v>
+        <v>155.5006395589978</v>
       </c>
       <c r="AD2" t="n">
-        <v>87384.79529256964</v>
+        <v>125640.7548884546</v>
       </c>
       <c r="AE2" t="n">
-        <v>119563.7320643309</v>
+        <v>171907.2237172174</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.137808845843431e-06</v>
+        <v>6.465244701838298e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.6328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>108152.7372848942</v>
+        <v>155500.6395589978</v>
       </c>
     </row>
     <row r="3">
@@ -31407,28 +31407,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.64448083652736</v>
+        <v>115.232269850872</v>
       </c>
       <c r="AB3" t="n">
-        <v>115.8143129314341</v>
+        <v>157.6658752988523</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.7611574516971</v>
+        <v>142.6184654458189</v>
       </c>
       <c r="AD3" t="n">
-        <v>84644.48083652736</v>
+        <v>115232.269850872</v>
       </c>
       <c r="AE3" t="n">
-        <v>115814.3129314341</v>
+        <v>157665.8752988523</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.424266416627059e-06</v>
+        <v>6.912829005707418e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.072916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>104761.1574516971</v>
+        <v>142618.4654458189</v>
       </c>
     </row>
     <row r="4">
@@ -31513,28 +31513,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>75.99614130432347</v>
+        <v>106.6691816646887</v>
       </c>
       <c r="AB4" t="n">
-        <v>103.9812732456662</v>
+        <v>145.9494802657335</v>
       </c>
       <c r="AC4" t="n">
-        <v>94.0574464657596</v>
+        <v>132.0202667105936</v>
       </c>
       <c r="AD4" t="n">
-        <v>75996.14130432348</v>
+        <v>106669.1816646887</v>
       </c>
       <c r="AE4" t="n">
-        <v>103981.2732456662</v>
+        <v>145949.4802657335</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.509731927021714e-06</v>
+        <v>7.046367179860633e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>94057.4464657596</v>
+        <v>132020.2667105936</v>
       </c>
     </row>
   </sheetData>
@@ -31810,28 +31810,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.09902076006058</v>
+        <v>106.1807940506984</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.4902815726126</v>
+        <v>145.2812467861314</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.42243715588918</v>
+        <v>131.415808496413</v>
       </c>
       <c r="AD2" t="n">
-        <v>77099.02076006058</v>
+        <v>106180.7940506984</v>
       </c>
       <c r="AE2" t="n">
-        <v>105490.2815726126</v>
+        <v>145281.2467861314</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.784590858277961e-06</v>
+        <v>7.797333528363104e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.0078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>95422.43715588919</v>
+        <v>131415.8084964129</v>
       </c>
     </row>
     <row r="3">
@@ -31916,28 +31916,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.23416659186439</v>
+        <v>106.3159398825022</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.6751940618998</v>
+        <v>145.4661592754186</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.5897018567252</v>
+        <v>131.583073197249</v>
       </c>
       <c r="AD3" t="n">
-        <v>77234.1665918644</v>
+        <v>106315.9398825022</v>
       </c>
       <c r="AE3" t="n">
-        <v>105675.1940618998</v>
+        <v>145466.1592754186</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.78568008512968e-06</v>
+        <v>7.799108615366878e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.0078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>95589.70185672519</v>
+        <v>131583.0731972489</v>
       </c>
     </row>
   </sheetData>
@@ -32213,28 +32213,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.4718462538068</v>
+        <v>166.8725731038917</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.6761154715695</v>
+        <v>228.3224164189899</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.291587959952</v>
+        <v>206.5316454485513</v>
       </c>
       <c r="AD2" t="n">
-        <v>125471.8462538068</v>
+        <v>166872.5731038917</v>
       </c>
       <c r="AE2" t="n">
-        <v>171676.1154715695</v>
+        <v>228322.4164189899</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.09795169418506e-06</v>
+        <v>4.576854367089053e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.3515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>155291.587959952</v>
+        <v>206531.6454485513</v>
       </c>
     </row>
     <row r="3">
@@ -32319,28 +32319,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>111.1340117671606</v>
+        <v>144.3228838325959</v>
       </c>
       <c r="AB3" t="n">
-        <v>152.0584577863348</v>
+        <v>197.4689367359389</v>
       </c>
       <c r="AC3" t="n">
-        <v>137.5462119906344</v>
+        <v>178.6227785633102</v>
       </c>
       <c r="AD3" t="n">
-        <v>111134.0117671606</v>
+        <v>144322.8838325959</v>
       </c>
       <c r="AE3" t="n">
-        <v>152058.4577863348</v>
+        <v>197468.9367359389</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.492350598630124e-06</v>
+        <v>5.159531737937916e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.1796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>137546.2119906344</v>
+        <v>178622.7785633102</v>
       </c>
     </row>
     <row r="4">
@@ -32425,28 +32425,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>100.9411399372398</v>
+        <v>142.3417772787736</v>
       </c>
       <c r="AB4" t="n">
-        <v>138.1121208708757</v>
+        <v>194.7582993487478</v>
       </c>
       <c r="AC4" t="n">
-        <v>124.9308938965755</v>
+        <v>176.1708406039483</v>
       </c>
       <c r="AD4" t="n">
-        <v>100941.1399372398</v>
+        <v>142341.7772787736</v>
       </c>
       <c r="AE4" t="n">
-        <v>138112.1208708757</v>
+        <v>194758.2993487478</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.623275278645034e-06</v>
+        <v>5.352957347062401e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.841145833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>124930.8938965755</v>
+        <v>176170.8406039483</v>
       </c>
     </row>
     <row r="5">
@@ -32531,28 +32531,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>99.63109804413298</v>
+        <v>141.0317353856668</v>
       </c>
       <c r="AB5" t="n">
-        <v>136.3196637577585</v>
+        <v>192.9658422356306</v>
       </c>
       <c r="AC5" t="n">
-        <v>123.3095063746043</v>
+        <v>174.549453081977</v>
       </c>
       <c r="AD5" t="n">
-        <v>99631.09804413299</v>
+        <v>141031.7353856668</v>
       </c>
       <c r="AE5" t="n">
-        <v>136319.6637577585</v>
+        <v>192965.8422356306</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.708162133983772e-06</v>
+        <v>5.478367557717012e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.645833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>123309.5063746043</v>
+        <v>174549.4530819771</v>
       </c>
     </row>
     <row r="6">
@@ -32637,28 +32637,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>98.481780629396</v>
+        <v>131.755904040852</v>
       </c>
       <c r="AB6" t="n">
-        <v>134.7471169666104</v>
+        <v>180.2742405688637</v>
       </c>
       <c r="AC6" t="n">
-        <v>121.8870412421195</v>
+        <v>163.0691200655076</v>
       </c>
       <c r="AD6" t="n">
-        <v>98481.780629396</v>
+        <v>131755.904040852</v>
       </c>
       <c r="AE6" t="n">
-        <v>134747.1169666104</v>
+        <v>180274.2405688637</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.769833123723777e-06</v>
+        <v>5.569479094169971e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.502604166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>121887.0412421195</v>
+        <v>163069.1200655076</v>
       </c>
     </row>
     <row r="7">
@@ -32743,28 +32743,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>97.94638027579498</v>
+        <v>131.0499114866587</v>
       </c>
       <c r="AB7" t="n">
-        <v>134.0145585826172</v>
+        <v>179.3082704100237</v>
       </c>
       <c r="AC7" t="n">
-        <v>121.2243972021423</v>
+        <v>162.1953407428794</v>
       </c>
       <c r="AD7" t="n">
-        <v>97946.38027579497</v>
+        <v>131049.9114866587</v>
       </c>
       <c r="AE7" t="n">
-        <v>134014.5585826172</v>
+        <v>179308.2704100237</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.789503830630868e-06</v>
+        <v>5.598540218970735e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.463541666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>121224.3972021423</v>
+        <v>162195.3407428793</v>
       </c>
     </row>
     <row r="8">
@@ -32849,28 +32849,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>97.02617067059006</v>
+        <v>130.1297018814538</v>
       </c>
       <c r="AB8" t="n">
-        <v>132.7554872039939</v>
+        <v>178.0491990314004</v>
       </c>
       <c r="AC8" t="n">
-        <v>120.0854898287766</v>
+        <v>161.0564333695136</v>
       </c>
       <c r="AD8" t="n">
-        <v>97026.17067059006</v>
+        <v>130129.7018814538</v>
       </c>
       <c r="AE8" t="n">
-        <v>132755.4872039939</v>
+        <v>178049.1990314004</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.829460723384573e-06</v>
+        <v>5.657571765343251e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.372395833333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>120085.4898287766</v>
+        <v>161056.4333695136</v>
       </c>
     </row>
     <row r="9">
@@ -32955,28 +32955,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>96.84260740546713</v>
+        <v>129.9461386163309</v>
       </c>
       <c r="AB9" t="n">
-        <v>132.5043278464131</v>
+        <v>177.7980396738196</v>
       </c>
       <c r="AC9" t="n">
-        <v>119.8583007677789</v>
+        <v>160.8292443085159</v>
       </c>
       <c r="AD9" t="n">
-        <v>96842.60740546713</v>
+        <v>129946.1386163309</v>
       </c>
       <c r="AE9" t="n">
-        <v>132504.3278464131</v>
+        <v>177798.0396738196</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.820203920134177e-06</v>
+        <v>5.643895941907597e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.385416666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>119858.3007677789</v>
+        <v>160829.2443085159</v>
       </c>
     </row>
     <row r="10">
@@ -33061,28 +33061,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>96.06075402505265</v>
+        <v>129.1642852359164</v>
       </c>
       <c r="AB10" t="n">
-        <v>131.4345615583938</v>
+        <v>176.7282733858003</v>
       </c>
       <c r="AC10" t="n">
-        <v>118.8906314728614</v>
+        <v>159.8615750135984</v>
       </c>
       <c r="AD10" t="n">
-        <v>96060.75402505265</v>
+        <v>129164.2852359164</v>
       </c>
       <c r="AE10" t="n">
-        <v>131434.5615583938</v>
+        <v>176728.2733858003</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.854941551480743e-06</v>
+        <v>5.695216651662138e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.3203125</v>
       </c>
       <c r="AH10" t="n">
-        <v>118890.6314728614</v>
+        <v>159861.5750135984</v>
       </c>
     </row>
   </sheetData>
@@ -33358,28 +33358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>148.4763726406433</v>
+        <v>199.6502696848825</v>
       </c>
       <c r="AB2" t="n">
-        <v>203.1519233621003</v>
+        <v>273.1703069309951</v>
       </c>
       <c r="AC2" t="n">
-        <v>183.7633889219944</v>
+        <v>247.0993162345147</v>
       </c>
       <c r="AD2" t="n">
-        <v>148476.3726406433</v>
+        <v>199650.2696848825</v>
       </c>
       <c r="AE2" t="n">
-        <v>203151.9233621003</v>
+        <v>273170.3069309951</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.639723910319937e-06</v>
+        <v>3.833325272381148e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.70572916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>183763.3889219944</v>
+        <v>247099.3162345147</v>
       </c>
     </row>
     <row r="3">
@@ -33464,28 +33464,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>119.9865341597687</v>
+        <v>162.6314483633014</v>
       </c>
       <c r="AB3" t="n">
-        <v>164.1708694696199</v>
+        <v>222.5195224436988</v>
       </c>
       <c r="AC3" t="n">
-        <v>148.5026321027472</v>
+        <v>201.2825715298474</v>
       </c>
       <c r="AD3" t="n">
-        <v>119986.5341597687</v>
+        <v>162631.4483633014</v>
       </c>
       <c r="AE3" t="n">
-        <v>164170.8694696199</v>
+        <v>222519.5224436988</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.144424109550149e-06</v>
+        <v>4.566235263884951e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.817708333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>148502.6321027472</v>
+        <v>201282.5715298474</v>
       </c>
     </row>
     <row r="4">
@@ -33570,28 +33570,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>117.0649557669125</v>
+        <v>159.539277769853</v>
       </c>
       <c r="AB4" t="n">
-        <v>160.173437021574</v>
+        <v>218.2886782208062</v>
       </c>
       <c r="AC4" t="n">
-        <v>144.8867089971098</v>
+        <v>197.455513141559</v>
       </c>
       <c r="AD4" t="n">
-        <v>117064.9557669125</v>
+        <v>159539.277769853</v>
       </c>
       <c r="AE4" t="n">
-        <v>160173.437021574</v>
+        <v>218288.6782208062</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.314405162830418e-06</v>
+        <v>4.813076482702509e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.322916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>144886.7089971098</v>
+        <v>197455.513141559</v>
       </c>
     </row>
     <row r="5">
@@ -33676,28 +33676,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>115.680943142016</v>
+        <v>149.7969640133931</v>
       </c>
       <c r="AB5" t="n">
-        <v>158.2797698898637</v>
+        <v>204.9588147386753</v>
       </c>
       <c r="AC5" t="n">
-        <v>143.1737707986709</v>
+        <v>185.3978331215776</v>
       </c>
       <c r="AD5" t="n">
-        <v>115680.943142016</v>
+        <v>149796.9640133931</v>
       </c>
       <c r="AE5" t="n">
-        <v>158279.7698898637</v>
+        <v>204958.8147386753</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.391531248554655e-06</v>
+        <v>4.925076594687978e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.114583333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>143173.7707986709</v>
+        <v>185397.8331215776</v>
       </c>
     </row>
     <row r="6">
@@ -33782,28 +33782,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>106.0709632584856</v>
+        <v>148.6305366074466</v>
       </c>
       <c r="AB6" t="n">
-        <v>145.1309714508334</v>
+        <v>203.3628573027147</v>
       </c>
       <c r="AC6" t="n">
-        <v>131.2798752282029</v>
+        <v>183.9541916233643</v>
       </c>
       <c r="AD6" t="n">
-        <v>106070.9632584856</v>
+        <v>148630.5366074466</v>
       </c>
       <c r="AE6" t="n">
-        <v>145130.9714508334</v>
+        <v>203362.8573027147</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.445313111469711e-06</v>
+        <v>5.003176949616018e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.971354166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>131279.8752282028</v>
+        <v>183954.1916233643</v>
       </c>
     </row>
     <row r="7">
@@ -33888,28 +33888,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>104.9030656093456</v>
+        <v>147.4626389583066</v>
       </c>
       <c r="AB7" t="n">
-        <v>143.5330023632729</v>
+        <v>201.7648882151543</v>
       </c>
       <c r="AC7" t="n">
-        <v>129.834414067595</v>
+        <v>182.5087304627564</v>
       </c>
       <c r="AD7" t="n">
-        <v>104903.0656093456</v>
+        <v>147462.6389583066</v>
       </c>
       <c r="AE7" t="n">
-        <v>143533.0023632729</v>
+        <v>201764.8882151543</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.507137343828173e-06</v>
+        <v>5.092956184262013e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.802083333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>129834.414067595</v>
+        <v>182508.7304627564</v>
       </c>
     </row>
     <row r="8">
@@ -33994,28 +33994,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>104.0715859274885</v>
+        <v>146.6311592764495</v>
       </c>
       <c r="AB8" t="n">
-        <v>142.395335180262</v>
+        <v>200.6272210321434</v>
       </c>
       <c r="AC8" t="n">
-        <v>128.8053242438043</v>
+        <v>181.4796406389658</v>
       </c>
       <c r="AD8" t="n">
-        <v>104071.5859274885</v>
+        <v>146631.1592764495</v>
       </c>
       <c r="AE8" t="n">
-        <v>142395.335180262</v>
+        <v>200627.2210321434</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.544241372764717e-06</v>
+        <v>5.146837505438658e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.7109375</v>
       </c>
       <c r="AH8" t="n">
-        <v>128805.3242438043</v>
+        <v>181479.6406389658</v>
       </c>
     </row>
     <row r="9">
@@ -34100,28 +34100,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>104.0407024020129</v>
+        <v>146.6002757509739</v>
       </c>
       <c r="AB9" t="n">
-        <v>142.3530789782212</v>
+        <v>200.5849648301026</v>
       </c>
       <c r="AC9" t="n">
-        <v>128.7671009143794</v>
+        <v>181.4414173095408</v>
       </c>
       <c r="AD9" t="n">
-        <v>104040.7024020129</v>
+        <v>146600.2757509739</v>
       </c>
       <c r="AE9" t="n">
-        <v>142353.0789782213</v>
+        <v>200584.9648301026</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.531359347373066e-06</v>
+        <v>5.128130627306358e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH9" t="n">
-        <v>128767.1009143794</v>
+        <v>181441.4173095408</v>
       </c>
     </row>
     <row r="10">
@@ -34206,28 +34206,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>103.4369996343071</v>
+        <v>145.9965729832681</v>
       </c>
       <c r="AB10" t="n">
-        <v>141.5270662179603</v>
+        <v>199.7589520698416</v>
       </c>
       <c r="AC10" t="n">
-        <v>128.0199216526412</v>
+        <v>180.6942380478027</v>
       </c>
       <c r="AD10" t="n">
-        <v>103436.9996343071</v>
+        <v>145996.5729832681</v>
       </c>
       <c r="AE10" t="n">
-        <v>141527.0662179603</v>
+        <v>199758.9520698416</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.561251339994578e-06</v>
+        <v>5.171538852806724e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.671875</v>
       </c>
       <c r="AH10" t="n">
-        <v>128019.9216526412</v>
+        <v>180694.2380478027</v>
       </c>
     </row>
     <row r="11">
@@ -34312,28 +34312,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>103.1583097155601</v>
+        <v>145.7178830645211</v>
       </c>
       <c r="AB11" t="n">
-        <v>141.1457503761993</v>
+        <v>199.3776362280807</v>
       </c>
       <c r="AC11" t="n">
-        <v>127.6749980596377</v>
+        <v>180.3493144547991</v>
       </c>
       <c r="AD11" t="n">
-        <v>103158.3097155601</v>
+        <v>145717.8830645211</v>
       </c>
       <c r="AE11" t="n">
-        <v>141145.7503761993</v>
+        <v>199377.6362280807</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.55811979791042e-06</v>
+        <v>5.166991324420971e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.684895833333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>127674.9980596377</v>
+        <v>180349.3144547991</v>
       </c>
     </row>
     <row r="12">
@@ -34418,28 +34418,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>102.2884866117552</v>
+        <v>144.8480599607162</v>
       </c>
       <c r="AB12" t="n">
-        <v>139.9556200316869</v>
+        <v>198.1875058835683</v>
       </c>
       <c r="AC12" t="n">
-        <v>126.5984520848467</v>
+        <v>179.2727684800082</v>
       </c>
       <c r="AD12" t="n">
-        <v>102288.4866117552</v>
+        <v>144848.0599607162</v>
       </c>
       <c r="AE12" t="n">
-        <v>139955.6200316869</v>
+        <v>198187.5058835683</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.592993789302185e-06</v>
+        <v>5.217634254171399e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.59375</v>
       </c>
       <c r="AH12" t="n">
-        <v>126598.4520848467</v>
+        <v>179272.7684800082</v>
       </c>
     </row>
     <row r="13">
@@ -34524,28 +34524,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>102.0916000942508</v>
+        <v>144.6511734432119</v>
       </c>
       <c r="AB13" t="n">
-        <v>139.6862312124175</v>
+        <v>197.9181170642989</v>
       </c>
       <c r="AC13" t="n">
-        <v>126.3547733563988</v>
+        <v>179.0290897515602</v>
       </c>
       <c r="AD13" t="n">
-        <v>102091.6000942508</v>
+        <v>144651.1734432119</v>
       </c>
       <c r="AE13" t="n">
-        <v>139686.2312124175</v>
+        <v>197918.1170642989</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.589672456788683e-06</v>
+        <v>5.212811118004691e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.606770833333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>126354.7733563988</v>
+        <v>179029.0897515602</v>
       </c>
     </row>
     <row r="14">
@@ -34630,28 +34630,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>101.5475212808557</v>
+        <v>144.1070946298167</v>
       </c>
       <c r="AB14" t="n">
-        <v>138.9417985768674</v>
+        <v>197.1736844287488</v>
       </c>
       <c r="AC14" t="n">
-        <v>125.6813883267676</v>
+        <v>178.355704721929</v>
       </c>
       <c r="AD14" t="n">
-        <v>101547.5212808557</v>
+        <v>144107.0946298167</v>
       </c>
       <c r="AE14" t="n">
-        <v>138941.7985768674</v>
+        <v>197173.6844287488</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.592543037032496e-06</v>
+        <v>5.216979685691631e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.59375</v>
       </c>
       <c r="AH14" t="n">
-        <v>125681.3883267676</v>
+        <v>178355.704721929</v>
       </c>
     </row>
   </sheetData>
@@ -34927,28 +34927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.87961251825298</v>
+        <v>102.2570170532764</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.085345185906</v>
+        <v>139.9125619934374</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.43790171556142</v>
+        <v>126.5595034453355</v>
       </c>
       <c r="AD2" t="n">
-        <v>73879.61251825298</v>
+        <v>102257.0170532764</v>
       </c>
       <c r="AE2" t="n">
-        <v>101085.345185906</v>
+        <v>139912.5619934374</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.861844983208289e-06</v>
+        <v>8.104405922942744e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.1640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>91437.90171556143</v>
+        <v>126559.5034453355</v>
       </c>
     </row>
   </sheetData>
@@ -35224,28 +35224,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.5147980046954</v>
+        <v>144.056910683182</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.001757497433</v>
+        <v>197.1050205390038</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.3538704661438</v>
+        <v>178.2935940174509</v>
       </c>
       <c r="AD2" t="n">
-        <v>104514.7980046954</v>
+        <v>144056.910683182</v>
       </c>
       <c r="AE2" t="n">
-        <v>143001.757497433</v>
+        <v>197105.0205390038</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.626795881058326e-06</v>
+        <v>5.519644667016171e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>129353.8704661438</v>
+        <v>178293.5940174509</v>
       </c>
     </row>
     <row r="3">
@@ -35330,28 +35330,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.12266955707432</v>
+        <v>123.8075821143168</v>
       </c>
       <c r="AB3" t="n">
-        <v>126.0463006532835</v>
+        <v>169.3989958537684</v>
       </c>
       <c r="AC3" t="n">
-        <v>114.0166186260614</v>
+        <v>153.2317934425157</v>
       </c>
       <c r="AD3" t="n">
-        <v>92122.66955707432</v>
+        <v>123807.5821143168</v>
       </c>
       <c r="AE3" t="n">
-        <v>126046.3006532835</v>
+        <v>169398.9958537684</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.009074051319363e-06</v>
+        <v>6.101436345676153e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.489583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>114016.6186260614</v>
+        <v>153231.7934425157</v>
       </c>
     </row>
     <row r="4">
@@ -35436,28 +35436,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>90.60823454560401</v>
+        <v>122.2931471028465</v>
       </c>
       <c r="AB4" t="n">
-        <v>123.9741838584335</v>
+        <v>167.3268790589184</v>
       </c>
       <c r="AC4" t="n">
-        <v>112.1422617498771</v>
+        <v>151.3574365663313</v>
       </c>
       <c r="AD4" t="n">
-        <v>90608.23454560401</v>
+        <v>122293.1471028465</v>
       </c>
       <c r="AE4" t="n">
-        <v>123974.1838584335</v>
+        <v>167326.8790589184</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.128713976247618e-06</v>
+        <v>6.283517139646768e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.2421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>112142.2617498771</v>
+        <v>151357.4365663313</v>
       </c>
     </row>
     <row r="5">
@@ -35542,28 +35542,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>89.57513798445248</v>
+        <v>121.260050541695</v>
       </c>
       <c r="AB5" t="n">
-        <v>122.5606555664631</v>
+        <v>165.913350766948</v>
       </c>
       <c r="AC5" t="n">
-        <v>110.8636386141925</v>
+        <v>150.0788134306467</v>
       </c>
       <c r="AD5" t="n">
-        <v>89575.13798445248</v>
+        <v>121260.050541695</v>
       </c>
       <c r="AE5" t="n">
-        <v>122560.6555664631</v>
+        <v>165913.350766948</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.178069691073884e-06</v>
+        <v>6.358631928860677e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.138020833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>110863.6386141925</v>
+        <v>150078.8134306467</v>
       </c>
     </row>
     <row r="6">
@@ -35648,28 +35648,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>88.97569699295606</v>
+        <v>120.6606095501985</v>
       </c>
       <c r="AB6" t="n">
-        <v>121.740473956428</v>
+        <v>165.0931691569129</v>
       </c>
       <c r="AC6" t="n">
-        <v>110.1217339858867</v>
+        <v>149.336908802341</v>
       </c>
       <c r="AD6" t="n">
-        <v>88975.69699295606</v>
+        <v>120660.6095501985</v>
       </c>
       <c r="AE6" t="n">
-        <v>121740.473956428</v>
+        <v>165093.1691569129</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.216451663058947e-06</v>
+        <v>6.417045706179487e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.072916666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>110121.7339858867</v>
+        <v>149336.908802341</v>
       </c>
     </row>
   </sheetData>
@@ -35945,28 +35945,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.3109562934624</v>
+        <v>161.1376015025056</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.6688052103482</v>
+        <v>220.4755752648869</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.0028701166373</v>
+        <v>199.4336958010827</v>
       </c>
       <c r="AD2" t="n">
-        <v>112310.9562934624</v>
+        <v>161137.6015025057</v>
       </c>
       <c r="AE2" t="n">
-        <v>153668.8052103482</v>
+        <v>220475.5752648869</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.284846573622965e-06</v>
+        <v>4.903982577981121e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.973958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>139002.8701166373</v>
+        <v>199433.6958010827</v>
       </c>
     </row>
     <row r="3">
@@ -36051,28 +36051,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.16298027126709</v>
+        <v>139.9087451818509</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.6791643690252</v>
+        <v>191.4293174959392</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.7301353485849</v>
+        <v>173.1595721069153</v>
       </c>
       <c r="AD3" t="n">
-        <v>99162.98027126709</v>
+        <v>139908.7451818509</v>
       </c>
       <c r="AE3" t="n">
-        <v>135679.1643690252</v>
+        <v>191429.3174959392</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.645150580132347e-06</v>
+        <v>5.441884282397717e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>122730.1353485849</v>
+        <v>173159.5721069153</v>
       </c>
     </row>
     <row r="4">
@@ -36157,28 +36157,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>96.84907441325595</v>
+        <v>137.5948393238397</v>
       </c>
       <c r="AB4" t="n">
-        <v>132.513176291774</v>
+        <v>188.2633294186881</v>
       </c>
       <c r="AC4" t="n">
-        <v>119.8663047299334</v>
+        <v>170.2957414882639</v>
       </c>
       <c r="AD4" t="n">
-        <v>96849.07441325595</v>
+        <v>137594.8393238397</v>
       </c>
       <c r="AE4" t="n">
-        <v>132513.1762917741</v>
+        <v>188263.3294186881</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.815001355245895e-06</v>
+        <v>5.695456320952549e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.580729166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>119866.3047299334</v>
+        <v>170295.7414882639</v>
       </c>
     </row>
     <row r="5">
@@ -36263,28 +36263,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>95.40565594002067</v>
+        <v>127.9852892061244</v>
       </c>
       <c r="AB5" t="n">
-        <v>130.5382274575657</v>
+        <v>175.1151190042058</v>
       </c>
       <c r="AC5" t="n">
-        <v>118.0798422406032</v>
+        <v>158.4023778221064</v>
       </c>
       <c r="AD5" t="n">
-        <v>95405.65594002066</v>
+        <v>127985.2892061244</v>
       </c>
       <c r="AE5" t="n">
-        <v>130538.2274575658</v>
+        <v>175115.1190042058</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.912403932443713e-06</v>
+        <v>5.840869670076411e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.372395833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>118079.8422406032</v>
+        <v>158402.3778221064</v>
       </c>
     </row>
     <row r="6">
@@ -36369,28 +36369,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>94.93166940222837</v>
+        <v>127.5113026683321</v>
       </c>
       <c r="AB6" t="n">
-        <v>129.8896981657484</v>
+        <v>174.4665897123885</v>
       </c>
       <c r="AC6" t="n">
-        <v>117.4932076741802</v>
+        <v>157.8157432556833</v>
       </c>
       <c r="AD6" t="n">
-        <v>94931.66940222836</v>
+        <v>127511.3026683321</v>
       </c>
       <c r="AE6" t="n">
-        <v>129889.6981657484</v>
+        <v>174466.5897123885</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.920529199084956e-06</v>
+        <v>5.852999967536899e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.359375</v>
       </c>
       <c r="AH6" t="n">
-        <v>117493.2076741802</v>
+        <v>157815.7432556833</v>
       </c>
     </row>
     <row r="7">
@@ -36475,28 +36475,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>94.20758465397049</v>
+        <v>126.7872179200742</v>
       </c>
       <c r="AB7" t="n">
-        <v>128.8989734688179</v>
+        <v>173.475865015458</v>
       </c>
       <c r="AC7" t="n">
-        <v>116.5970363518336</v>
+        <v>156.9195719333367</v>
       </c>
       <c r="AD7" t="n">
-        <v>94207.58465397048</v>
+        <v>126787.2179200742</v>
       </c>
       <c r="AE7" t="n">
-        <v>128898.9734688179</v>
+        <v>173475.865015458</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.943068638436516e-06</v>
+        <v>5.886649337582089e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.307291666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>116597.0363518336</v>
+        <v>156919.5719333367</v>
       </c>
     </row>
     <row r="8">
@@ -36581,28 +36581,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>93.62415892271628</v>
+        <v>126.20379218882</v>
       </c>
       <c r="AB8" t="n">
-        <v>128.1007046443896</v>
+        <v>172.6775961910297</v>
       </c>
       <c r="AC8" t="n">
-        <v>115.8749531836311</v>
+        <v>156.1974887651343</v>
       </c>
       <c r="AD8" t="n">
-        <v>93624.15892271628</v>
+        <v>126203.79218882</v>
       </c>
       <c r="AE8" t="n">
-        <v>128100.7046443896</v>
+        <v>172677.5961910297</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.978739313660304e-06</v>
+        <v>5.939902470086643e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.229166666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>115874.9531836311</v>
+        <v>156197.4887651343</v>
       </c>
     </row>
     <row r="9">
@@ -36687,28 +36687,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>93.61107311875615</v>
+        <v>126.1907063848599</v>
       </c>
       <c r="AB9" t="n">
-        <v>128.0828000701064</v>
+        <v>172.6596916167465</v>
       </c>
       <c r="AC9" t="n">
-        <v>115.8587573967883</v>
+        <v>156.1812929782915</v>
       </c>
       <c r="AD9" t="n">
-        <v>93611.07311875615</v>
+        <v>126190.7063848599</v>
       </c>
       <c r="AE9" t="n">
-        <v>128082.8000701064</v>
+        <v>172659.6916167465</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.976651396845372e-06</v>
+        <v>5.936785396745404e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.2421875</v>
       </c>
       <c r="AH9" t="n">
-        <v>115858.7573967883</v>
+        <v>156181.2929782915</v>
       </c>
     </row>
   </sheetData>
